--- a/tests/test1/d20/N, 0.1.xlsx
+++ b/tests/test1/d20/N, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -532,13 +532,13 @@
         <v>359.8235947654032</v>
       </c>
       <c r="F2" t="n">
-        <v>20.29806541581908</v>
+        <v>20.29806541582548</v>
       </c>
       <c r="G2" t="n">
-        <v>97.85285545352312</v>
+        <v>97.8528554535223</v>
       </c>
       <c r="H2" t="n">
-        <v>11.99484744601204</v>
+        <v>11.9948474460171</v>
       </c>
       <c r="I2" t="n">
         <v>44.32671026784765</v>
@@ -547,16 +547,16 @@
         <v>21.33251976353872</v>
       </c>
       <c r="K2" t="n">
-        <v>44.35817286854607</v>
+        <v>44.3581728685468</v>
       </c>
       <c r="L2" t="n">
-        <v>21.97951743952578</v>
+        <v>21.97951743953412</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01192607716577197</v>
+        <v>0.01192607716576342</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1708067839191252</v>
+        <v>0.1708067839210674</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.000336899999993534</v>
+        <v>0.0002326999999979762</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>359.8375654636337</v>
       </c>
       <c r="F3" t="n">
-        <v>20.01721552760053</v>
+        <v>20.01721552759827</v>
       </c>
       <c r="G3" t="n">
-        <v>74.17555045476938</v>
+        <v>74.1755504547674</v>
       </c>
       <c r="H3" t="n">
-        <v>11.92800352362761</v>
+        <v>11.92800352362616</v>
       </c>
       <c r="I3" t="n">
         <v>34.95824278912326</v>
@@ -599,16 +599,16 @@
         <v>25.60484930330038</v>
       </c>
       <c r="K3" t="n">
-        <v>34.94158553510173</v>
+        <v>34.94158553510134</v>
       </c>
       <c r="L3" t="n">
-        <v>25.98879506997518</v>
+        <v>25.98879506997229</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01211909537776951</v>
+        <v>0.01211909537777247</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1123660058041512</v>
+        <v>0.1123660058038016</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.00033239999999779</v>
+        <v>0.0002386000000171862</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0.04167578474055147</v>
       </c>
       <c r="F4" t="n">
-        <v>19.97099447216406</v>
+        <v>19.97099447216413</v>
       </c>
       <c r="G4" t="n">
-        <v>81.6303253076386</v>
+        <v>81.63032530763782</v>
       </c>
       <c r="H4" t="n">
-        <v>3.202542313539784</v>
+        <v>3.202542313539821</v>
       </c>
       <c r="I4" t="n">
         <v>15.56656275893635</v>
@@ -654,13 +654,13 @@
         <v>15.55672234108719</v>
       </c>
       <c r="L4" t="n">
-        <v>18.59524806734395</v>
+        <v>18.59524806734407</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01067738406310671</v>
+        <v>0.01067738406310656</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1874279270155602</v>
+        <v>0.1874279270155019</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003114000000010719</v>
+        <v>0.0001856000000088898</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>359.8211371526569</v>
       </c>
       <c r="F5" t="n">
-        <v>20.22854025940423</v>
+        <v>20.22854025939976</v>
       </c>
       <c r="G5" t="n">
-        <v>98.14912850974441</v>
+        <v>98.14912850974395</v>
       </c>
       <c r="H5" t="n">
-        <v>11.8530938414581</v>
+        <v>11.85309384145471</v>
       </c>
       <c r="I5" t="n">
         <v>44.23827129596256</v>
@@ -703,16 +703,16 @@
         <v>21.20345840520746</v>
       </c>
       <c r="K5" t="n">
-        <v>44.23976929571785</v>
+        <v>44.23976929571725</v>
       </c>
       <c r="L5" t="n">
-        <v>21.76896887755767</v>
+        <v>21.76896887755217</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01380078658120861</v>
+        <v>0.01380078658121582</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1469463949904501</v>
+        <v>0.146946394989143</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.000309399999999016</v>
+        <v>0.0001847000000054777</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>359.9949438292857</v>
       </c>
       <c r="F6" t="n">
-        <v>19.95968696655983</v>
+        <v>19.95968696655949</v>
       </c>
       <c r="G6" t="n">
-        <v>174.131009816593</v>
+        <v>174.1310098165933</v>
       </c>
       <c r="H6" t="n">
-        <v>9.557157562557665</v>
+        <v>9.557157562557483</v>
       </c>
       <c r="I6" t="n">
         <v>21.56436866719725</v>
@@ -755,16 +755,16 @@
         <v>6.41396481681925</v>
       </c>
       <c r="K6" t="n">
-        <v>21.53011470738534</v>
+        <v>21.53011470738512</v>
       </c>
       <c r="L6" t="n">
-        <v>6.380017111755024</v>
+        <v>6.380017111754873</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009445547479471097</v>
+        <v>0.009445547479471661</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02154212917875031</v>
+        <v>0.02154212917890179</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0001911999999890668</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>359.9558772513115</v>
       </c>
       <c r="F7" t="n">
-        <v>19.93073080098226</v>
+        <v>19.9307308009824</v>
       </c>
       <c r="G7" t="n">
-        <v>39.8107167794595</v>
+        <v>39.81071677945915</v>
       </c>
       <c r="H7" t="n">
-        <v>13.5194883548242</v>
+        <v>13.51948835482457</v>
       </c>
       <c r="I7" t="n">
         <v>21.19065735311351</v>
@@ -810,13 +810,13 @@
         <v>21.18763783931179</v>
       </c>
       <c r="L7" t="n">
-        <v>31.93535218492103</v>
+        <v>31.93535218492161</v>
       </c>
       <c r="M7" t="n">
-        <v>0.009736029108637542</v>
+        <v>0.009736029108637202</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01883279905973149</v>
+        <v>0.01883279905983895</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0003370000000018081</v>
+        <v>0.0001862999999957538</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0.03117836734874744</v>
       </c>
       <c r="F8" t="n">
-        <v>19.89508233726156</v>
+        <v>19.89508233726146</v>
       </c>
       <c r="G8" t="n">
-        <v>161.3900385174708</v>
+        <v>161.3900385174713</v>
       </c>
       <c r="H8" t="n">
-        <v>7.005956531521068</v>
+        <v>7.005956531521091</v>
       </c>
       <c r="I8" t="n">
         <v>22.57367986124408</v>
@@ -859,16 +859,16 @@
         <v>10.25939500470955</v>
       </c>
       <c r="K8" t="n">
-        <v>22.53884252264994</v>
+        <v>22.53884252264992</v>
       </c>
       <c r="L8" t="n">
-        <v>10.08115376702321</v>
+        <v>10.08115376702305</v>
       </c>
       <c r="M8" t="n">
-        <v>0.009403271191852948</v>
+        <v>0.009403271191853141</v>
       </c>
       <c r="N8" t="n">
-        <v>0.06249199662928857</v>
+        <v>0.06249199662934181</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003444000000030201</v>
+        <v>0.0002430000000117616</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>359.83094742962</v>
       </c>
       <c r="F9" t="n">
-        <v>19.33431107529617</v>
+        <v>19.33431107529558</v>
       </c>
       <c r="G9" t="n">
-        <v>13.20895660389114</v>
+        <v>13.20895660389099</v>
       </c>
       <c r="H9" t="n">
-        <v>13.26020669201489</v>
+        <v>13.26020669201388</v>
       </c>
       <c r="I9" t="n">
         <v>8.395584447363737</v>
@@ -911,16 +911,16 @@
         <v>32.13470811956061</v>
       </c>
       <c r="K9" t="n">
-        <v>8.388118716261234</v>
+        <v>8.388118716261131</v>
       </c>
       <c r="L9" t="n">
-        <v>32.55740465356243</v>
+        <v>32.55740465356066</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01237318293613702</v>
+        <v>0.01237318293613899</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2192450961582736</v>
+        <v>0.219245096158004</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003314000000003148</v>
+        <v>0.0001910000000009404</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>359.990879528338</v>
       </c>
       <c r="F10" t="n">
-        <v>19.93494505266523</v>
+        <v>19.93494505265459</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2088751568713</v>
+        <v>157.2088751568751</v>
       </c>
       <c r="H10" t="n">
-        <v>14.56508274764219</v>
+        <v>14.56508274763275</v>
       </c>
       <c r="I10" t="n">
         <v>81.3927713553782</v>
@@ -963,16 +963,16 @@
         <v>8.056033186416919</v>
       </c>
       <c r="K10" t="n">
-        <v>81.36729423975422</v>
+        <v>81.36729423975288</v>
       </c>
       <c r="L10" t="n">
-        <v>8.028780021864716</v>
+        <v>8.028780021859225</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01106997595865702</v>
+        <v>0.01106997595867164</v>
       </c>
       <c r="N10" t="n">
-        <v>0.02203250555855358</v>
+        <v>0.02203250556155077</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0003075999999992973</v>
+        <v>0.0001969000000201504</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>359.9998891445288</v>
       </c>
       <c r="F11" t="n">
-        <v>20.00887104351117</v>
+        <v>20.00887104351121</v>
       </c>
       <c r="G11" t="n">
-        <v>1.798944758337172</v>
+        <v>1.798944758337197</v>
       </c>
       <c r="H11" t="n">
-        <v>8.814550677435349</v>
+        <v>8.814550677435356</v>
       </c>
       <c r="I11" t="n">
         <v>3.091364150809967</v>
@@ -1015,16 +1015,16 @@
         <v>28.24598523429134</v>
       </c>
       <c r="K11" t="n">
-        <v>3.075382395409277</v>
+        <v>3.075382395409289</v>
       </c>
       <c r="L11" t="n">
-        <v>28.00508870710357</v>
+        <v>28.00508870710361</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0105264799857325</v>
+        <v>0.01052647998573243</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07753804365679422</v>
+        <v>0.07753804365678171</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003234999999932597</v>
+        <v>0.0001920999999924788</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>359.866841349587</v>
       </c>
       <c r="F12" t="n">
-        <v>19.90914448945063</v>
+        <v>19.90914448945042</v>
       </c>
       <c r="G12" t="n">
-        <v>131.5035735055041</v>
+        <v>131.5035735055033</v>
       </c>
       <c r="H12" t="n">
-        <v>3.042405971874409</v>
+        <v>3.042405971874322</v>
       </c>
       <c r="I12" t="n">
         <v>14.50009772114043</v>
@@ -1067,16 +1067,16 @@
         <v>14.92377511516745</v>
       </c>
       <c r="K12" t="n">
-        <v>14.54282097279244</v>
+        <v>14.54282097279237</v>
       </c>
       <c r="L12" t="n">
-        <v>15.36572061503134</v>
+        <v>15.36572061503123</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01062958586182347</v>
+        <v>0.01062958586182353</v>
       </c>
       <c r="N12" t="n">
-        <v>0.4023744863732013</v>
+        <v>0.4023744863732608</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003384000000039578</v>
+        <v>0.0003012999999896238</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>359.8250545258695</v>
       </c>
       <c r="F13" t="n">
-        <v>19.4564784483701</v>
+        <v>19.45647844836986</v>
       </c>
       <c r="G13" t="n">
-        <v>26.85883809429595</v>
+        <v>26.85883809429483</v>
       </c>
       <c r="H13" t="n">
-        <v>4.131395227422503</v>
+        <v>4.1313952274226</v>
       </c>
       <c r="I13" t="n">
         <v>8.947316066673613</v>
@@ -1119,16 +1119,16 @@
         <v>20.91271227320319</v>
       </c>
       <c r="K13" t="n">
-        <v>8.955791761239468</v>
+        <v>8.955791761239416</v>
       </c>
       <c r="L13" t="n">
-        <v>21.52529753751745</v>
+        <v>21.52529753751734</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01308109244999023</v>
+        <v>0.01308109244999046</v>
       </c>
       <c r="N13" t="n">
-        <v>0.884695058803519</v>
+        <v>0.8846950588035994</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0002994999999970105</v>
+        <v>0.0001945999999861669</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>359.952701416851</v>
       </c>
       <c r="F14" t="n">
-        <v>19.93337710108075</v>
+        <v>19.93337710107913</v>
       </c>
       <c r="G14" t="n">
-        <v>27.47010924702701</v>
+        <v>27.47010924702667</v>
       </c>
       <c r="H14" t="n">
-        <v>12.13531658629366</v>
+        <v>12.13531658629199</v>
       </c>
       <c r="I14" t="n">
         <v>14.58896536332175</v>
@@ -1171,16 +1171,16 @@
         <v>31.00025388231675</v>
       </c>
       <c r="K14" t="n">
-        <v>14.59137302956092</v>
+        <v>14.5913730295607</v>
       </c>
       <c r="L14" t="n">
-        <v>31.24525232707144</v>
+        <v>31.24525232706793</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01040494313152016</v>
+        <v>0.01040494313152253</v>
       </c>
       <c r="N14" t="n">
-        <v>0.07435387857706718</v>
+        <v>0.07435387857647786</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.000324599999999009</v>
+        <v>0.0001861000000076274</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0.07123906620506157</v>
       </c>
       <c r="F15" t="n">
-        <v>19.86904646685877</v>
+        <v>19.86904646685976</v>
       </c>
       <c r="G15" t="n">
-        <v>141.5885109793054</v>
+        <v>141.5885109793053</v>
       </c>
       <c r="H15" t="n">
-        <v>5.849928197193297</v>
+        <v>5.849928197193754</v>
       </c>
       <c r="I15" t="n">
         <v>25.33499649909478</v>
@@ -1223,16 +1223,16 @@
         <v>13.2842839938443</v>
       </c>
       <c r="K15" t="n">
-        <v>25.30590324433297</v>
+        <v>25.3059032443333</v>
       </c>
       <c r="L15" t="n">
-        <v>12.99953748935983</v>
+        <v>12.9995374893605</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00932078380005342</v>
+        <v>0.009320783800052105</v>
       </c>
       <c r="N15" t="n">
-        <v>0.08329202353398267</v>
+        <v>0.08329202353361613</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003025000000036471</v>
+        <v>0.0001919999999984157</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>359.8448660888747</v>
       </c>
       <c r="F16" t="n">
-        <v>20.18730685174789</v>
+        <v>20.18730685175341</v>
       </c>
       <c r="G16" t="n">
-        <v>91.61397286117801</v>
+        <v>91.61397286117969</v>
       </c>
       <c r="H16" t="n">
-        <v>12.637205923137</v>
+        <v>12.63720592314129</v>
       </c>
       <c r="I16" t="n">
         <v>43.51026779230099</v>
@@ -1275,16 +1275,16 @@
         <v>23.0795266139911</v>
       </c>
       <c r="K16" t="n">
-        <v>43.50986892242408</v>
+        <v>43.50986892242485</v>
       </c>
       <c r="L16" t="n">
-        <v>23.63821416499233</v>
+        <v>23.63821416499943</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01286361942908936</v>
+        <v>0.01286361942908051</v>
       </c>
       <c r="N16" t="n">
-        <v>0.135984761901894</v>
+        <v>0.1359847619030464</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0006727000000026351</v>
+        <v>0.000185900000019501</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0.0312328481543536</v>
       </c>
       <c r="F17" t="n">
-        <v>19.91415882473797</v>
+        <v>19.91415882473727</v>
       </c>
       <c r="G17" t="n">
-        <v>153.6699641543835</v>
+        <v>153.6699641543847</v>
       </c>
       <c r="H17" t="n">
-        <v>5.172785112125965</v>
+        <v>5.172785112125748</v>
       </c>
       <c r="I17" t="n">
         <v>18.56949776560077</v>
@@ -1327,16 +1327,16 @@
         <v>12.54421959985167</v>
       </c>
       <c r="K17" t="n">
-        <v>18.53614418642581</v>
+        <v>18.53614418642557</v>
       </c>
       <c r="L17" t="n">
-        <v>12.37648936296042</v>
+        <v>12.37648936295984</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01015825883097431</v>
+        <v>0.01015825883097552</v>
       </c>
       <c r="N17" t="n">
-        <v>0.06533890524869915</v>
+        <v>0.06533890524876555</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003096000000013532</v>
+        <v>0.0002369000000044252</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>359.9872051278866</v>
       </c>
       <c r="F18" t="n">
-        <v>19.78167250474306</v>
+        <v>19.78167250474289</v>
       </c>
       <c r="G18" t="n">
-        <v>40.07458019657544</v>
+        <v>40.07458019657513</v>
       </c>
       <c r="H18" t="n">
-        <v>9.162354290318117</v>
+        <v>9.162354290318088</v>
       </c>
       <c r="I18" t="n">
         <v>17.88767679762028</v>
@@ -1379,16 +1379,16 @@
         <v>27.2033509828832</v>
       </c>
       <c r="K18" t="n">
-        <v>17.86482039440697</v>
+        <v>17.86482039440693</v>
       </c>
       <c r="L18" t="n">
-        <v>26.87443392293162</v>
+        <v>26.87443392293144</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008597774185348246</v>
+        <v>0.008597774185348291</v>
       </c>
       <c r="N18" t="n">
-        <v>0.05996185411700131</v>
+        <v>0.05996185411703499</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0002899999999996794</v>
+        <v>0.0001973999999904663</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>359.9723734109978</v>
       </c>
       <c r="F19" t="n">
-        <v>19.86500065106986</v>
+        <v>19.86500065107149</v>
       </c>
       <c r="G19" t="n">
-        <v>52.7074470263243</v>
+        <v>52.70744702632556</v>
       </c>
       <c r="H19" t="n">
-        <v>9.370715234536036</v>
+        <v>9.370715234536942</v>
       </c>
       <c r="I19" t="n">
         <v>22.80758777377703</v>
@@ -1431,16 +1431,16 @@
         <v>26.18982127859822</v>
       </c>
       <c r="K19" t="n">
-        <v>22.78407084654147</v>
+        <v>22.78407084654174</v>
       </c>
       <c r="L19" t="n">
-        <v>26.09814271445446</v>
+        <v>26.09814271445679</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01037620079131165</v>
+        <v>0.01037620079131005</v>
       </c>
       <c r="N19" t="n">
-        <v>0.02100041500893647</v>
+        <v>0.02100041500892737</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003134000000031278</v>
+        <v>0.000193200000012439</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>359.9920571556194</v>
       </c>
       <c r="F20" t="n">
-        <v>19.91771529290175</v>
+        <v>19.91771529290301</v>
       </c>
       <c r="G20" t="n">
-        <v>117.0895251152656</v>
+        <v>117.0895251152655</v>
       </c>
       <c r="H20" t="n">
-        <v>9.019523634525116</v>
+        <v>9.0195236345259</v>
       </c>
       <c r="I20" t="n">
         <v>41.12890466717757</v>
@@ -1483,16 +1483,16 @@
         <v>16.50686888128499</v>
       </c>
       <c r="K20" t="n">
-        <v>41.12754683621598</v>
+        <v>41.12754683621624</v>
       </c>
       <c r="L20" t="n">
-        <v>16.42562457739215</v>
+        <v>16.42562457739334</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01033400799712308</v>
+        <v>0.01033400799712155</v>
       </c>
       <c r="N20" t="n">
-        <v>0.02175918694822774</v>
+        <v>0.02175918694782474</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.000290899999995986</v>
+        <v>0.0002094999999826541</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>359.9778996737318</v>
       </c>
       <c r="F21" t="n">
-        <v>19.78915017877742</v>
+        <v>19.78915017877727</v>
       </c>
       <c r="G21" t="n">
-        <v>17.38046759813063</v>
+        <v>17.38046759813079</v>
       </c>
       <c r="H21" t="n">
-        <v>12.17728235923702</v>
+        <v>12.17728235923648</v>
       </c>
       <c r="I21" t="n">
         <v>10.08818411982853</v>
@@ -1535,16 +1535,16 @@
         <v>31.75837563530379</v>
       </c>
       <c r="K21" t="n">
-        <v>10.07296392112434</v>
+        <v>10.07296392112432</v>
       </c>
       <c r="L21" t="n">
-        <v>31.60551286017616</v>
+        <v>31.60551286017536</v>
       </c>
       <c r="M21" t="n">
-        <v>0.009799586885599672</v>
+        <v>0.009799586885600162</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02492827490598969</v>
+        <v>0.02492827490592305</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003051999999996724</v>
+        <v>0.0001851000000101521</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>359.9116106887382</v>
       </c>
       <c r="F22" t="n">
-        <v>20.04305020551112</v>
+        <v>20.04305020551289</v>
       </c>
       <c r="G22" t="n">
-        <v>105.513786551765</v>
+        <v>105.5137865517652</v>
       </c>
       <c r="H22" t="n">
-        <v>13.8871238276367</v>
+        <v>13.88712382763825</v>
       </c>
       <c r="I22" t="n">
         <v>52.99086548673188</v>
@@ -1587,16 +1587,16 @@
         <v>21.3741511885343</v>
       </c>
       <c r="K22" t="n">
-        <v>52.97752796669789</v>
+        <v>52.97752796669813</v>
       </c>
       <c r="L22" t="n">
-        <v>21.53925505918696</v>
+        <v>21.5392550591891</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01033211575855902</v>
+        <v>0.01033211575855693</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04574722864442892</v>
+        <v>0.04574722864481567</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003083000000003722</v>
+        <v>0.0002269000000012511</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0.005196424950550942</v>
       </c>
       <c r="F23" t="n">
-        <v>20.08169851441414</v>
+        <v>20.0816985144142</v>
       </c>
       <c r="G23" t="n">
-        <v>8.899132106236031</v>
+        <v>8.899132106236236</v>
       </c>
       <c r="H23" t="n">
-        <v>6.377184453300314</v>
+        <v>6.377184453299894</v>
       </c>
       <c r="I23" t="n">
         <v>5.36750693504376</v>
@@ -1639,16 +1639,16 @@
         <v>25.16639260177412</v>
       </c>
       <c r="K23" t="n">
-        <v>5.378357709322077</v>
+        <v>5.378357709322051</v>
       </c>
       <c r="L23" t="n">
-        <v>25.13650157373109</v>
+        <v>25.13650157373065</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01021344800951937</v>
+        <v>0.01021344800951954</v>
       </c>
       <c r="N23" t="n">
-        <v>0.04351184064591525</v>
+        <v>0.04351184064610558</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0002858000000003358</v>
+        <v>0.0001924999999971533</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0.009194991986513107</v>
       </c>
       <c r="F24" t="n">
-        <v>19.98178204809893</v>
+        <v>19.98178204809907</v>
       </c>
       <c r="G24" t="n">
-        <v>37.86790006603555</v>
+        <v>37.8679000660346</v>
       </c>
       <c r="H24" t="n">
-        <v>8.62285844285052</v>
+        <v>8.622858442850978</v>
       </c>
       <c r="I24" t="n">
         <v>16.42485345887366</v>
@@ -1694,13 +1694,13 @@
         <v>16.42127187411509</v>
       </c>
       <c r="L24" t="n">
-        <v>26.61981830907709</v>
+        <v>26.61981830907781</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01109597053134171</v>
+        <v>0.01109597053134129</v>
       </c>
       <c r="N24" t="n">
-        <v>0.06768435244938534</v>
+        <v>0.06768435244918611</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0002850999999992609</v>
+        <v>0.0001881999999966411</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>359.9333011943647</v>
       </c>
       <c r="F25" t="n">
-        <v>19.95671521954845</v>
+        <v>19.9567152195576</v>
       </c>
       <c r="G25" t="n">
-        <v>92.87007337216141</v>
+        <v>92.87007337216248</v>
       </c>
       <c r="H25" t="n">
-        <v>14.40618638303293</v>
+        <v>14.40618638304125</v>
       </c>
       <c r="I25" t="n">
         <v>48.17804819258614</v>
@@ -1743,16 +1743,16 @@
         <v>24.6655445066675</v>
       </c>
       <c r="K25" t="n">
-        <v>48.1798633233072</v>
+        <v>48.17986332330818</v>
       </c>
       <c r="L25" t="n">
-        <v>24.70736862849366</v>
+        <v>24.70736862850663</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00954549600937411</v>
+        <v>0.009545496009363457</v>
       </c>
       <c r="N25" t="n">
-        <v>0.01678922502838163</v>
+        <v>0.01678922503092109</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003147000000041089</v>
+        <v>0.0002058000000033644</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>359.8670787827351</v>
       </c>
       <c r="F26" t="n">
-        <v>20.32738811653584</v>
+        <v>20.32738811654175</v>
       </c>
       <c r="G26" t="n">
-        <v>171.8361584256269</v>
+        <v>171.8361584256226</v>
       </c>
       <c r="H26" t="n">
-        <v>11.47899889683185</v>
+        <v>11.4789988968355</v>
       </c>
       <c r="I26" t="n">
         <v>37.05770755775833</v>
@@ -1795,16 +1795,16 @@
         <v>4.784771626472109</v>
       </c>
       <c r="K26" t="n">
-        <v>37.07226324230776</v>
+        <v>37.07226324231092</v>
       </c>
       <c r="L26" t="n">
-        <v>5.108270257096493</v>
+        <v>5.108270257098854</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0113815119870048</v>
+        <v>0.01138151198701838</v>
       </c>
       <c r="N26" t="n">
-        <v>0.1591141971421674</v>
+        <v>0.1591141971446899</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0002790000000061355</v>
+        <v>0.0001843000000008033</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>359.9771726910334</v>
       </c>
       <c r="F27" t="n">
-        <v>20.06732736768722</v>
+        <v>20.06732736769071</v>
       </c>
       <c r="G27" t="n">
-        <v>156.4172942466337</v>
+        <v>156.417294246631</v>
       </c>
       <c r="H27" t="n">
-        <v>10.01955799064413</v>
+        <v>10.01955799064623</v>
       </c>
       <c r="I27" t="n">
         <v>42.87464225195476</v>
@@ -1847,16 +1847,16 @@
         <v>8.709475492388034</v>
       </c>
       <c r="K27" t="n">
-        <v>42.88115127416413</v>
+        <v>42.88115127416514</v>
       </c>
       <c r="L27" t="n">
-        <v>8.777214621541075</v>
+        <v>8.777214621543138</v>
       </c>
       <c r="M27" t="n">
-        <v>0.01077878045890516</v>
+        <v>0.01077878045890172</v>
       </c>
       <c r="N27" t="n">
-        <v>0.02778518121153672</v>
+        <v>0.0277851812127727</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0002417000000036751</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>359.980400678834</v>
       </c>
       <c r="F28" t="n">
-        <v>19.91178606996378</v>
+        <v>19.91178606996107</v>
       </c>
       <c r="G28" t="n">
-        <v>55.35091444905222</v>
+        <v>55.35091444905228</v>
       </c>
       <c r="H28" t="n">
-        <v>9.204671894848591</v>
+        <v>9.204671894846607</v>
       </c>
       <c r="I28" t="n">
         <v>23.50223078865571</v>
@@ -1899,16 +1899,16 @@
         <v>25.81162416209323</v>
       </c>
       <c r="K28" t="n">
-        <v>23.4988473132326</v>
+        <v>23.49884731323222</v>
       </c>
       <c r="L28" t="n">
-        <v>25.70734697319739</v>
+        <v>25.70734697319287</v>
       </c>
       <c r="M28" t="n">
-        <v>0.009733513387371179</v>
+        <v>0.009733513387374623</v>
       </c>
       <c r="N28" t="n">
-        <v>0.01710226406543782</v>
+        <v>0.01710226406636471</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0009908000000038442</v>
+        <v>0.000225999999997839</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>359.8714394584768</v>
       </c>
       <c r="F29" t="n">
-        <v>20.03284118961431</v>
+        <v>20.03284118960705</v>
       </c>
       <c r="G29" t="n">
-        <v>76.06785237129475</v>
+        <v>76.06785237129333</v>
       </c>
       <c r="H29" t="n">
-        <v>13.00838575514898</v>
+        <v>13.00838575514292</v>
       </c>
       <c r="I29" t="n">
         <v>37.54462213366881</v>
@@ -1951,16 +1951,16 @@
         <v>26.39565896564254</v>
       </c>
       <c r="K29" t="n">
-        <v>37.54811083098883</v>
+        <v>37.54811083098798</v>
       </c>
       <c r="L29" t="n">
-        <v>26.7076007259806</v>
+        <v>26.70760072596941</v>
       </c>
       <c r="M29" t="n">
-        <v>0.01134548935099722</v>
+        <v>0.01134548935100792</v>
       </c>
       <c r="N29" t="n">
-        <v>0.08029012960531857</v>
+        <v>0.08029012960324844</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003065000000006535</v>
+        <v>0.0002041000000190252</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>359.955366762213</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03368442258615</v>
+        <v>20.03368442258966</v>
       </c>
       <c r="G30" t="n">
-        <v>130.8448732643452</v>
+        <v>130.844873264344</v>
       </c>
       <c r="H30" t="n">
-        <v>9.768894225054517</v>
+        <v>9.768894225056791</v>
       </c>
       <c r="I30" t="n">
         <v>45.79205508530252</v>
@@ -2003,16 +2003,16 @@
         <v>13.89068101942091</v>
       </c>
       <c r="K30" t="n">
-        <v>45.78902931177488</v>
+        <v>45.78902931177562</v>
       </c>
       <c r="L30" t="n">
-        <v>13.98321969899782</v>
+        <v>13.98321969900075</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0097797304861021</v>
+        <v>0.009779730486098646</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03003603308692618</v>
+        <v>0.03003603308770893</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0003166999999990594</v>
+        <v>0.0001869999999826177</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0.04174821263045001</v>
       </c>
       <c r="F31" t="n">
-        <v>19.91886906993979</v>
+        <v>19.91886906993899</v>
       </c>
       <c r="G31" t="n">
-        <v>156.2117943865655</v>
+        <v>156.2117943865663</v>
       </c>
       <c r="H31" t="n">
-        <v>6.436627443963456</v>
+        <v>6.436627443963113</v>
       </c>
       <c r="I31" t="n">
         <v>22.82783905909671</v>
@@ -2055,16 +2055,16 @@
         <v>11.25757446175414</v>
       </c>
       <c r="K31" t="n">
-        <v>22.79135678420134</v>
+        <v>22.79135678420104</v>
       </c>
       <c r="L31" t="n">
-        <v>11.10154532467378</v>
+        <v>11.10154532467325</v>
       </c>
       <c r="M31" t="n">
-        <v>0.01042710088441215</v>
+        <v>0.01042710088441379</v>
       </c>
       <c r="N31" t="n">
-        <v>0.05751085991612746</v>
+        <v>0.05751085991616992</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0002907000000007542</v>
+        <v>0.000202999999999065</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0.1264052664776349</v>
       </c>
       <c r="F32" t="n">
-        <v>19.5929679774115</v>
+        <v>19.59296797741325</v>
       </c>
       <c r="G32" t="n">
-        <v>117.72096497295</v>
+        <v>117.7209649729492</v>
       </c>
       <c r="H32" t="n">
-        <v>7.295702902173468</v>
+        <v>7.295702902174408</v>
       </c>
       <c r="I32" t="n">
         <v>34.85112742421163</v>
@@ -2107,16 +2107,16 @@
         <v>16.34058174572703</v>
       </c>
       <c r="K32" t="n">
-        <v>34.78529151237492</v>
+        <v>34.7852915123753</v>
       </c>
       <c r="L32" t="n">
-        <v>15.71188373732677</v>
+        <v>15.71188373732849</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01128254884030807</v>
+        <v>0.01128254884030508</v>
       </c>
       <c r="N32" t="n">
-        <v>0.2152243824205961</v>
+        <v>0.2152243824199964</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003119999999938727</v>
+        <v>0.0002368000000103621</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0.04147572142515835</v>
       </c>
       <c r="F33" t="n">
-        <v>19.73485945008817</v>
+        <v>19.73485945008445</v>
       </c>
       <c r="G33" t="n">
-        <v>51.42565876066248</v>
+        <v>51.42565876066224</v>
       </c>
       <c r="H33" t="n">
-        <v>14.20372090834017</v>
+        <v>14.20372090833633</v>
       </c>
       <c r="I33" t="n">
         <v>27.6517349691609</v>
@@ -2159,16 +2159,16 @@
         <v>31.85401002845563</v>
       </c>
       <c r="K33" t="n">
-        <v>27.60766419625969</v>
+        <v>27.60766419625929</v>
       </c>
       <c r="L33" t="n">
-        <v>31.31127060779196</v>
+        <v>31.31127060778449</v>
       </c>
       <c r="M33" t="n">
-        <v>0.01038697151943146</v>
+        <v>0.01038697151943602</v>
       </c>
       <c r="N33" t="n">
-        <v>0.09163655550773631</v>
+        <v>0.09163655550888865</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003007999999979916</v>
+        <v>0.0001870000000110394</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0.03488944509893788</v>
       </c>
       <c r="F34" t="n">
-        <v>19.82572478854638</v>
+        <v>19.82572478854885</v>
       </c>
       <c r="G34" t="n">
-        <v>155.2787333940785</v>
+        <v>155.2787333940765</v>
       </c>
       <c r="H34" t="n">
-        <v>7.431525359005724</v>
+        <v>7.431525359006917</v>
       </c>
       <c r="I34" t="n">
         <v>28.38669219472616</v>
@@ -2211,16 +2211,16 @@
         <v>10.55219493556909</v>
       </c>
       <c r="K34" t="n">
-        <v>28.33610656254857</v>
+        <v>28.33610656254947</v>
       </c>
       <c r="L34" t="n">
-        <v>10.348834158194</v>
+        <v>10.34883415819556</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01050510495871476</v>
+        <v>0.01050510495870897</v>
       </c>
       <c r="N34" t="n">
-        <v>0.07545260665967321</v>
+        <v>0.07545260665874844</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0002852000000004296</v>
+        <v>0.0001937999999768181</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0.03188535051081121</v>
       </c>
       <c r="F35" t="n">
-        <v>19.86433918686662</v>
+        <v>19.86433918686727</v>
       </c>
       <c r="G35" t="n">
-        <v>45.11220832732516</v>
+        <v>45.11220832732607</v>
       </c>
       <c r="H35" t="n">
-        <v>8.169648024380619</v>
+        <v>8.169648024380852</v>
       </c>
       <c r="I35" t="n">
         <v>18.6090803159811</v>
@@ -2263,16 +2263,16 @@
         <v>25.8983258433767</v>
       </c>
       <c r="K35" t="n">
-        <v>18.58786321293055</v>
+        <v>18.58786321293068</v>
       </c>
       <c r="L35" t="n">
-        <v>25.49656455781961</v>
+        <v>25.49656455782042</v>
       </c>
       <c r="M35" t="n">
-        <v>0.009672756831325624</v>
+        <v>0.009672756831325003</v>
       </c>
       <c r="N35" t="n">
-        <v>0.1091407041787658</v>
+        <v>0.109140704178632</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003235000000003652</v>
+        <v>0.0001920999999924788</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>359.9756164899372</v>
       </c>
       <c r="F36" t="n">
-        <v>19.87953349859688</v>
+        <v>19.87953349859674</v>
       </c>
       <c r="G36" t="n">
-        <v>6.946119741400576</v>
+        <v>6.946119741400487</v>
       </c>
       <c r="H36" t="n">
-        <v>12.34745002441462</v>
+        <v>12.34745002441501</v>
       </c>
       <c r="I36" t="n">
         <v>5.272501281412788</v>
@@ -2318,13 +2318,13 @@
         <v>5.278679272064324</v>
       </c>
       <c r="L36" t="n">
-        <v>32.10752556581311</v>
+        <v>32.10752556581343</v>
       </c>
       <c r="M36" t="n">
-        <v>0.009652664139872588</v>
+        <v>0.009652664139872568</v>
       </c>
       <c r="N36" t="n">
-        <v>0.01154728787515802</v>
+        <v>0.01154728787506212</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003002999999992539</v>
+        <v>0.0003013999999836869</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0.1889736710087823</v>
       </c>
       <c r="F37" t="n">
-        <v>19.66298897625388</v>
+        <v>19.66298897625217</v>
       </c>
       <c r="G37" t="n">
-        <v>85.94292302911431</v>
+        <v>85.94292302911475</v>
       </c>
       <c r="H37" t="n">
-        <v>6.23446255688936</v>
+        <v>6.234462556888495</v>
       </c>
       <c r="I37" t="n">
         <v>26.3682126287348</v>
@@ -2367,16 +2367,16 @@
         <v>20.58139294425217</v>
       </c>
       <c r="K37" t="n">
-        <v>26.32985814916952</v>
+        <v>26.32985814916919</v>
       </c>
       <c r="L37" t="n">
-        <v>19.61028808550735</v>
+        <v>19.61028808550523</v>
       </c>
       <c r="M37" t="n">
-        <v>0.01375795403504332</v>
+        <v>0.01375795403504591</v>
       </c>
       <c r="N37" t="n">
-        <v>0.3493296174656479</v>
+        <v>0.3493296174662385</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0002974000000008914</v>
+        <v>0.0001977999999951408</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>359.9323586734246</v>
       </c>
       <c r="F38" t="n">
-        <v>20.06483782436789</v>
+        <v>20.06483782437019</v>
       </c>
       <c r="G38" t="n">
-        <v>130.6363038218579</v>
+        <v>130.6363038218566</v>
       </c>
       <c r="H38" t="n">
-        <v>10.28379922909594</v>
+        <v>10.28379922909748</v>
       </c>
       <c r="I38" t="n">
         <v>48.16347976442483</v>
@@ -2419,16 +2419,16 @@
         <v>13.96841538265422</v>
       </c>
       <c r="K38" t="n">
-        <v>48.15993315217764</v>
+        <v>48.15993315217797</v>
       </c>
       <c r="L38" t="n">
-        <v>14.10922320825383</v>
+        <v>14.10922320825588</v>
       </c>
       <c r="M38" t="n">
-        <v>0.01164122165504287</v>
+        <v>0.0116412216550405</v>
       </c>
       <c r="N38" t="n">
-        <v>0.04582357050735388</v>
+        <v>0.04582357050792195</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0008134999999995784</v>
+        <v>0.0001849999999876673</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0.005446361233744566</v>
       </c>
       <c r="F39" t="n">
-        <v>19.97293272269894</v>
+        <v>19.97293272269828</v>
       </c>
       <c r="G39" t="n">
-        <v>170.0654946061292</v>
+        <v>170.0654946061301</v>
       </c>
       <c r="H39" t="n">
-        <v>8.561287795275524</v>
+        <v>8.561287795275272</v>
       </c>
       <c r="I39" t="n">
         <v>22.15312424526588</v>
@@ -2471,16 +2471,16 @@
         <v>7.834932884569842</v>
       </c>
       <c r="K39" t="n">
-        <v>22.14144029345124</v>
+        <v>22.14144029345093</v>
       </c>
       <c r="L39" t="n">
-        <v>7.813248412673401</v>
+        <v>7.813248412672967</v>
       </c>
       <c r="M39" t="n">
-        <v>0.009782366451080313</v>
+        <v>0.00978236645108182</v>
       </c>
       <c r="N39" t="n">
-        <v>0.01123835658582623</v>
+        <v>0.01123835658609168</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0005220999999977494</v>
+        <v>0.0001854999999864049</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>359.8991294351883</v>
       </c>
       <c r="F40" t="n">
-        <v>20.00654722848857</v>
+        <v>20.00654722848844</v>
       </c>
       <c r="G40" t="n">
-        <v>68.91598554582099</v>
+        <v>68.91598554582187</v>
       </c>
       <c r="H40" t="n">
-        <v>13.48278689385425</v>
+        <v>13.48278689385386</v>
       </c>
       <c r="I40" t="n">
         <v>34.96648716718858</v>
@@ -2523,16 +2523,16 @@
         <v>28.11848681131468</v>
       </c>
       <c r="K40" t="n">
-        <v>34.96569446941331</v>
+        <v>34.96569446941336</v>
       </c>
       <c r="L40" t="n">
-        <v>28.3228638006163</v>
+        <v>28.32286380061568</v>
       </c>
       <c r="M40" t="n">
-        <v>0.01118971382204308</v>
+        <v>0.0111897138220437</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05211092381909243</v>
+        <v>0.05211092381895382</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003133000000019592</v>
+        <v>0.0001893000000166012</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>359.8595160433978</v>
       </c>
       <c r="F41" t="n">
-        <v>20.12686669458908</v>
+        <v>20.12686669460327</v>
       </c>
       <c r="G41" t="n">
-        <v>97.74501459883021</v>
+        <v>97.74501459883184</v>
       </c>
       <c r="H41" t="n">
-        <v>12.83008792337817</v>
+        <v>12.83008792338973</v>
       </c>
       <c r="I41" t="n">
         <v>46.69997733810174</v>
@@ -2575,16 +2575,16 @@
         <v>22.11787085750909</v>
       </c>
       <c r="K41" t="n">
-        <v>46.6946031914309</v>
+        <v>46.69460319143272</v>
       </c>
       <c r="L41" t="n">
-        <v>22.50457323574729</v>
+        <v>22.50457323576536</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01212484899862296</v>
+        <v>0.01212484899860206</v>
       </c>
       <c r="N41" t="n">
-        <v>0.09861514222336507</v>
+        <v>0.09861514222652824</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000503299999998319</v>
+        <v>0.0003031000000248696</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0.06075476972112828</v>
       </c>
       <c r="F42" t="n">
-        <v>19.94740274088837</v>
+        <v>19.94740274088893</v>
       </c>
       <c r="G42" t="n">
-        <v>75.77677283436329</v>
+        <v>75.77677283436734</v>
       </c>
       <c r="H42" t="n">
-        <v>3.524587573225499</v>
+        <v>3.52458757322555</v>
       </c>
       <c r="I42" t="n">
         <v>16.11028815977839</v>
@@ -2627,16 +2627,16 @@
         <v>19.40305890800094</v>
       </c>
       <c r="K42" t="n">
-        <v>16.06880689415204</v>
+        <v>16.06880689415219</v>
       </c>
       <c r="L42" t="n">
-        <v>19.11712636830199</v>
+        <v>19.11712636830229</v>
       </c>
       <c r="M42" t="n">
-        <v>0.01013148474711477</v>
+        <v>0.01013148474711434</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1901394758938892</v>
+        <v>0.1901394758938951</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003237000000027024</v>
+        <v>0.0006232000000068183</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0.0270712323067284</v>
       </c>
       <c r="F43" t="n">
-        <v>19.91960704616603</v>
+        <v>19.91960704616565</v>
       </c>
       <c r="G43" t="n">
-        <v>46.55841587707555</v>
+        <v>46.55841587707746</v>
       </c>
       <c r="H43" t="n">
-        <v>3.377280883327113</v>
+        <v>3.377280883326793</v>
       </c>
       <c r="I43" t="n">
         <v>11.6234771877166</v>
@@ -2679,16 +2679,16 @@
         <v>20.81671725181581</v>
       </c>
       <c r="K43" t="n">
-        <v>11.59612163730014</v>
+        <v>11.59612163730005</v>
       </c>
       <c r="L43" t="n">
-        <v>20.50856704034861</v>
+        <v>20.50856704034784</v>
       </c>
       <c r="M43" t="n">
-        <v>0.01006663905264463</v>
+        <v>0.01006663905264528</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1900562620893914</v>
+        <v>0.190056262089747</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0008395999999990522</v>
+        <v>0.0002592999999819767</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>359.9503285846989</v>
       </c>
       <c r="F44" t="n">
-        <v>19.93442035819254</v>
+        <v>19.93442035819707</v>
       </c>
       <c r="G44" t="n">
-        <v>67.28989101744449</v>
+        <v>67.28989101744543</v>
       </c>
       <c r="H44" t="n">
-        <v>14.42100554061685</v>
+        <v>14.42100554062103</v>
       </c>
       <c r="I44" t="n">
         <v>35.49886759486641</v>
@@ -2731,16 +2731,16 @@
         <v>29.50819163776045</v>
       </c>
       <c r="K44" t="n">
-        <v>35.49738840269091</v>
+        <v>35.49738840269139</v>
       </c>
       <c r="L44" t="n">
-        <v>29.477721610638</v>
+        <v>29.4777216106458</v>
       </c>
       <c r="M44" t="n">
-        <v>0.009867539363308935</v>
+        <v>0.009867539363302787</v>
       </c>
       <c r="N44" t="n">
-        <v>0.007431422694401375</v>
+        <v>0.007431422694541394</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0002277000000106</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>359.9742600074655</v>
       </c>
       <c r="F45" t="n">
-        <v>19.8008210593509</v>
+        <v>19.80082105935006</v>
       </c>
       <c r="G45" t="n">
-        <v>20.44236435646526</v>
+        <v>20.4423643564648</v>
       </c>
       <c r="H45" t="n">
-        <v>10.3788208886662</v>
+        <v>10.37882088866556</v>
       </c>
       <c r="I45" t="n">
         <v>10.84139862960262</v>
@@ -2783,16 +2783,16 @@
         <v>29.48104188665291</v>
       </c>
       <c r="K45" t="n">
-        <v>10.81375644865208</v>
+        <v>10.81375644865194</v>
       </c>
       <c r="L45" t="n">
-        <v>29.37636026109961</v>
+        <v>29.37636026109804</v>
       </c>
       <c r="M45" t="n">
-        <v>0.009878144799187945</v>
+        <v>0.00987814479918897</v>
       </c>
       <c r="N45" t="n">
-        <v>0.03649623106085836</v>
+        <v>0.03649623106083808</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003557000000000698</v>
+        <v>0.0002969999999891115</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0.07506147172559083</v>
       </c>
       <c r="F46" t="n">
-        <v>20.02158657391854</v>
+        <v>20.0215865739195</v>
       </c>
       <c r="G46" t="n">
-        <v>152.8125299615571</v>
+        <v>152.8125299615542</v>
       </c>
       <c r="H46" t="n">
-        <v>4.420502739806815</v>
+        <v>4.420502739806985</v>
       </c>
       <c r="I46" t="n">
         <v>15.96520424559259</v>
@@ -2835,16 +2835,16 @@
         <v>13.46641365931518</v>
       </c>
       <c r="K46" t="n">
-        <v>15.92706711200709</v>
+        <v>15.92706711200741</v>
       </c>
       <c r="L46" t="n">
-        <v>13.19313677224282</v>
+        <v>13.19313677224377</v>
       </c>
       <c r="M46" t="n">
-        <v>0.01066011034038927</v>
+        <v>0.01066011034038708</v>
       </c>
       <c r="N46" t="n">
-        <v>0.2025624848912984</v>
+        <v>0.2025624848911227</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0006752999999974918</v>
+        <v>0.0002224000000126125</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>359.997362522715</v>
       </c>
       <c r="F47" t="n">
-        <v>19.93947187143206</v>
+        <v>19.93947187143179</v>
       </c>
       <c r="G47" t="n">
         <v>178.0963116923451</v>
       </c>
       <c r="H47" t="n">
-        <v>9.583737982803061</v>
+        <v>9.583737982802809</v>
       </c>
       <c r="I47" t="n">
         <v>14.9370660770169</v>
@@ -2887,16 +2887,16 @@
         <v>6.082586648846124</v>
       </c>
       <c r="K47" t="n">
-        <v>14.90557697026281</v>
+        <v>14.90557697026263</v>
       </c>
       <c r="L47" t="n">
-        <v>6.031939603017863</v>
+        <v>6.03193960301789</v>
       </c>
       <c r="M47" t="n">
-        <v>0.009518136570515406</v>
+        <v>0.00951813657051606</v>
       </c>
       <c r="N47" t="n">
-        <v>0.02641963769345763</v>
+        <v>0.02641963769355845</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0008176000000048589</v>
+        <v>0.0001946000000145887</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>359.941512416013</v>
       </c>
       <c r="F48" t="n">
-        <v>20.12614906588483</v>
+        <v>20.12614906588616</v>
       </c>
       <c r="G48" t="n">
-        <v>140.6891462115297</v>
+        <v>140.6891462115287</v>
       </c>
       <c r="H48" t="n">
-        <v>10.71132035309206</v>
+        <v>10.71132035309295</v>
       </c>
       <c r="I48" t="n">
         <v>50.84770593025824</v>
@@ -2939,16 +2939,16 @@
         <v>11.82955794607099</v>
       </c>
       <c r="K48" t="n">
-        <v>50.85370777805658</v>
+        <v>50.85370777805674</v>
       </c>
       <c r="L48" t="n">
-        <v>11.98268140597969</v>
+        <v>11.98268140598078</v>
       </c>
       <c r="M48" t="n">
-        <v>0.01070055888703558</v>
+        <v>0.0107005588870346</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05506209637197725</v>
+        <v>0.05506209637241068</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0003482999999988579</v>
+        <v>0.0002197999999964395</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0.0848009475766186</v>
       </c>
       <c r="F49" t="n">
-        <v>19.98551209801861</v>
+        <v>19.98551209801807</v>
       </c>
       <c r="G49" t="n">
-        <v>20.63127935025756</v>
+        <v>20.63127935025732</v>
       </c>
       <c r="H49" t="n">
-        <v>14.06138827190276</v>
+        <v>14.06138827190227</v>
       </c>
       <c r="I49" t="n">
         <v>12.18983427447809</v>
@@ -2991,16 +2991,16 @@
         <v>34.68944772507457</v>
       </c>
       <c r="K49" t="n">
-        <v>12.1602625487184</v>
+        <v>12.16026254871833</v>
       </c>
       <c r="L49" t="n">
-        <v>33.92176925682025</v>
+        <v>33.92176925681915</v>
       </c>
       <c r="M49" t="n">
-        <v>0.01045622763854867</v>
+        <v>0.01045622763854897</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1569581024390994</v>
+        <v>0.1569581024392435</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003215999999994779</v>
+        <v>0.0002167000000099506</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0.09936313199284796</v>
       </c>
       <c r="F50" t="n">
-        <v>20.35033996006731</v>
+        <v>20.35033996006736</v>
       </c>
       <c r="G50" t="n">
-        <v>2.930512310322939</v>
+        <v>2.930512310323028</v>
       </c>
       <c r="H50" t="n">
-        <v>12.52141078213844</v>
+        <v>12.52141078213879</v>
       </c>
       <c r="I50" t="n">
         <v>3.510331044355261</v>
@@ -3043,16 +3043,16 @@
         <v>33.86101386425069</v>
       </c>
       <c r="K50" t="n">
-        <v>3.450251426911659</v>
+        <v>3.450251426911684</v>
       </c>
       <c r="L50" t="n">
-        <v>32.79944162330133</v>
+        <v>32.79944162330179</v>
       </c>
       <c r="M50" t="n">
-        <v>0.01124981661136419</v>
+        <v>0.01124981661136423</v>
       </c>
       <c r="N50" t="n">
-        <v>0.2875988460077536</v>
+        <v>0.2875988460076652</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003192999999939161</v>
+        <v>0.0002523999999937132</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0.1043159078206541</v>
       </c>
       <c r="F51" t="n">
-        <v>19.82057476940779</v>
+        <v>19.82057476940716</v>
       </c>
       <c r="G51" t="n">
-        <v>56.00449447651067</v>
+        <v>56.0044944765108</v>
       </c>
       <c r="H51" t="n">
-        <v>5.568648882655725</v>
+        <v>5.568648882655389</v>
       </c>
       <c r="I51" t="n">
         <v>17.9141781265068</v>
@@ -3095,16 +3095,16 @@
         <v>22.67245653586901</v>
       </c>
       <c r="K51" t="n">
-        <v>17.85832798982011</v>
+        <v>17.85832798982</v>
       </c>
       <c r="L51" t="n">
-        <v>22.00051927127312</v>
+        <v>22.00051927127219</v>
       </c>
       <c r="M51" t="n">
-        <v>0.01012938425510057</v>
+        <v>0.01012938425510117</v>
       </c>
       <c r="N51" t="n">
-        <v>0.2751437275673424</v>
+        <v>0.2751437275675825</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003199000000009278</v>
+        <v>0.0002490999999906762</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0.1560352108683698</v>
       </c>
       <c r="F52" t="n">
-        <v>19.71926333265874</v>
+        <v>19.71926333266041</v>
       </c>
       <c r="G52" t="n">
-        <v>92.52472390514365</v>
+        <v>92.52472390514201</v>
       </c>
       <c r="H52" t="n">
-        <v>5.419013878094769</v>
+        <v>5.419013878095551</v>
       </c>
       <c r="I52" t="n">
         <v>24.7123806252271</v>
@@ -3147,16 +3147,16 @@
         <v>19.26468874930528</v>
       </c>
       <c r="K52" t="n">
-        <v>24.66059405297233</v>
+        <v>24.66059405297266</v>
       </c>
       <c r="L52" t="n">
-        <v>18.50402885416426</v>
+        <v>18.5040288541663</v>
       </c>
       <c r="M52" t="n">
-        <v>0.01206617059860191</v>
+        <v>0.01206617059859937</v>
       </c>
       <c r="N52" t="n">
-        <v>0.3047321101068159</v>
+        <v>0.3047321101061791</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003115000000022405</v>
+        <v>0.0001933000000065022</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0.02905031733486384</v>
       </c>
       <c r="F53" t="n">
-        <v>19.8846964976639</v>
+        <v>19.88469649766492</v>
       </c>
       <c r="G53" t="n">
-        <v>122.4424757341867</v>
+        <v>122.4424757341811</v>
       </c>
       <c r="H53" t="n">
-        <v>3.500346358916476</v>
+        <v>3.500346358916708</v>
       </c>
       <c r="I53" t="n">
         <v>17.51566640221833</v>
@@ -3199,16 +3199,16 @@
         <v>15.8948919808433</v>
       </c>
       <c r="K53" t="n">
-        <v>17.4693859288754</v>
+        <v>17.46938592887566</v>
       </c>
       <c r="L53" t="n">
-        <v>15.74102320346492</v>
+        <v>15.74102320346622</v>
       </c>
       <c r="M53" t="n">
-        <v>0.009869535405576418</v>
+        <v>0.009869535405574911</v>
       </c>
       <c r="N53" t="n">
-        <v>0.07356444451209146</v>
+        <v>0.0735644445115882</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003308000000004085</v>
+        <v>0.0001863999999898169</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>359.9480524159385</v>
       </c>
       <c r="F54" t="n">
-        <v>19.99272894905397</v>
+        <v>19.99272894905353</v>
       </c>
       <c r="G54" t="n">
-        <v>145.4518660272794</v>
+        <v>145.451866027278</v>
       </c>
       <c r="H54" t="n">
-        <v>3.191092460245843</v>
+        <v>3.191092460245614</v>
       </c>
       <c r="I54" t="n">
         <v>13.13409212102936</v>
@@ -3251,16 +3251,16 @@
         <v>14.38207027932934</v>
       </c>
       <c r="K54" t="n">
-        <v>13.15456094587871</v>
+        <v>13.15456094587856</v>
       </c>
       <c r="L54" t="n">
-        <v>14.60560152069453</v>
+        <v>14.60560152069436</v>
       </c>
       <c r="M54" t="n">
-        <v>0.009388163752072739</v>
+        <v>0.009388163752073058</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1910149836580637</v>
+        <v>0.191014983658225</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0006208000000000879</v>
+        <v>0.0001858999999910793</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>359.979413513315</v>
       </c>
       <c r="F55" t="n">
-        <v>19.95650238952615</v>
+        <v>19.95650238952893</v>
       </c>
       <c r="G55" t="n">
-        <v>152.2798561078768</v>
+        <v>152.2798561078745</v>
       </c>
       <c r="H55" t="n">
-        <v>9.703295889435649</v>
+        <v>9.703295889437303</v>
       </c>
       <c r="I55" t="n">
         <v>43.10728306886178</v>
@@ -3303,16 +3303,16 @@
         <v>9.632097422497353</v>
       </c>
       <c r="K55" t="n">
-        <v>43.0937269286695</v>
+        <v>43.09372692867024</v>
       </c>
       <c r="L55" t="n">
-        <v>9.630514248440811</v>
+        <v>9.630514248442624</v>
       </c>
       <c r="M55" t="n">
-        <v>0.01128520521556568</v>
+        <v>0.01128520521556179</v>
       </c>
       <c r="N55" t="n">
-        <v>0.01452973453129068</v>
+        <v>0.0145297345304228</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0004977999999979943</v>
+        <v>0.0002437999999926888</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0.185221074461286</v>
       </c>
       <c r="F56" t="n">
-        <v>19.61459510030759</v>
+        <v>19.61459510030813</v>
       </c>
       <c r="G56" t="n">
-        <v>78.23376347313881</v>
+        <v>78.23376347313945</v>
       </c>
       <c r="H56" t="n">
-        <v>6.823374395921012</v>
+        <v>6.823374395921252</v>
       </c>
       <c r="I56" t="n">
         <v>26.41857436802691</v>
@@ -3355,16 +3355,16 @@
         <v>21.857439245682</v>
       </c>
       <c r="K56" t="n">
-        <v>26.35829759969166</v>
+        <v>26.35829759969179</v>
       </c>
       <c r="L56" t="n">
-        <v>20.83381496028077</v>
+        <v>20.83381496028136</v>
       </c>
       <c r="M56" t="n">
-        <v>0.0121157332522608</v>
+        <v>0.01211573325226027</v>
       </c>
       <c r="N56" t="n">
-        <v>0.3400660745005639</v>
+        <v>0.3400660745004183</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003156999999944787</v>
+        <v>0.0001950999999849046</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0.1623731114634006</v>
       </c>
       <c r="F57" t="n">
-        <v>20.14274502447414</v>
+        <v>20.14274502447435</v>
       </c>
       <c r="G57" t="n">
-        <v>17.1234627878647</v>
+        <v>17.12346278786463</v>
       </c>
       <c r="H57" t="n">
-        <v>13.53776442168764</v>
+        <v>13.53776442168813</v>
       </c>
       <c r="I57" t="n">
         <v>10.33697773787481</v>
@@ -3407,16 +3407,16 @@
         <v>34.79295383250428</v>
       </c>
       <c r="K57" t="n">
-        <v>10.30704364612934</v>
+        <v>10.30704364612937</v>
       </c>
       <c r="L57" t="n">
-        <v>33.59360337502513</v>
+        <v>33.59360337502592</v>
       </c>
       <c r="M57" t="n">
-        <v>0.01195839127601605</v>
+        <v>0.01195839127601586</v>
       </c>
       <c r="N57" t="n">
-        <v>0.2653914277173431</v>
+        <v>0.265391427717212</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003832000000016933</v>
+        <v>0.0001862000000016906</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0.1037643175502605</v>
       </c>
       <c r="F58" t="n">
-        <v>20.08994855980211</v>
+        <v>20.08994855980267</v>
       </c>
       <c r="G58" t="n">
-        <v>178.1526160184004</v>
+        <v>178.1526160184003</v>
       </c>
       <c r="H58" t="n">
-        <v>7.413577615281462</v>
+        <v>7.413577615281924</v>
       </c>
       <c r="I58" t="n">
         <v>10.01126221134659</v>
@@ -3459,16 +3459,16 @@
         <v>9.131905031738382</v>
       </c>
       <c r="K58" t="n">
-        <v>9.87312280096948</v>
+        <v>9.873122800969721</v>
       </c>
       <c r="L58" t="n">
-        <v>8.710893393842433</v>
+        <v>8.710893393842447</v>
       </c>
       <c r="M58" t="n">
-        <v>0.01241221859215329</v>
+        <v>0.0124122185921504</v>
       </c>
       <c r="N58" t="n">
-        <v>0.2836739532888083</v>
+        <v>0.283673953288911</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003259999999940533</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0.0131052157346955</v>
       </c>
       <c r="F59" t="n">
-        <v>19.85924317591957</v>
+        <v>19.85924317591969</v>
       </c>
       <c r="G59" t="n">
-        <v>15.45704441671281</v>
+        <v>15.45704441671276</v>
       </c>
       <c r="H59" t="n">
-        <v>5.753038622420179</v>
+        <v>5.753038622420393</v>
       </c>
       <c r="I59" t="n">
         <v>7.21865410269864</v>
@@ -3511,16 +3511,16 @@
         <v>24.23572292664682</v>
       </c>
       <c r="K59" t="n">
-        <v>7.190693605409554</v>
+        <v>7.190693605409592</v>
       </c>
       <c r="L59" t="n">
-        <v>24.08626268774006</v>
+        <v>24.08626268774044</v>
       </c>
       <c r="M59" t="n">
-        <v>0.01100928030538948</v>
+        <v>0.01100928030538927</v>
       </c>
       <c r="N59" t="n">
-        <v>0.02941649671566676</v>
+        <v>0.0294164967155425</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003389000000026954</v>
+        <v>0.0002451000000007753</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0.07601861461744777</v>
       </c>
       <c r="F60" t="n">
-        <v>19.68581753692187</v>
+        <v>19.68581753692194</v>
       </c>
       <c r="G60" t="n">
-        <v>66.19420421044008</v>
+        <v>66.19420421043969</v>
       </c>
       <c r="H60" t="n">
-        <v>8.09792703753544</v>
+        <v>8.097927037535545</v>
       </c>
       <c r="I60" t="n">
         <v>25.72186802556637</v>
@@ -3566,13 +3566,13 @@
         <v>25.66595051446738</v>
       </c>
       <c r="L60" t="n">
-        <v>23.28967967884245</v>
+        <v>23.28967967884265</v>
       </c>
       <c r="M60" t="n">
-        <v>0.009954224479609679</v>
+        <v>0.009954224479609537</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1627701081609366</v>
+        <v>0.1627701081608824</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003290000000006899</v>
+        <v>0.0001943000000039774</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0.1669283521394677</v>
       </c>
       <c r="F61" t="n">
-        <v>20.00318528037392</v>
+        <v>20.00318528037414</v>
       </c>
       <c r="G61" t="n">
-        <v>169.930942761916</v>
+        <v>169.9309427619164</v>
       </c>
       <c r="H61" t="n">
-        <v>5.437274696253387</v>
+        <v>5.437274696253626</v>
       </c>
       <c r="I61" t="n">
         <v>12.36048824931865</v>
@@ -3615,16 +3615,16 @@
         <v>11.95385309927802</v>
       </c>
       <c r="K61" t="n">
-        <v>12.19653640147152</v>
+        <v>12.19653640147159</v>
       </c>
       <c r="L61" t="n">
-        <v>11.21565613601292</v>
+        <v>11.21565613601284</v>
       </c>
       <c r="M61" t="n">
-        <v>0.01385836320375275</v>
+        <v>0.01385836320375214</v>
       </c>
       <c r="N61" t="n">
-        <v>0.511293808169808</v>
+        <v>0.5112938081699306</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003051999999996724</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0.0921770993213077</v>
       </c>
       <c r="F62" t="n">
-        <v>19.98122265008644</v>
+        <v>19.98122265008683</v>
       </c>
       <c r="G62" t="n">
-        <v>56.66858774520535</v>
+        <v>56.66858774520757</v>
       </c>
       <c r="H62" t="n">
-        <v>4.910028490136379</v>
+        <v>4.910028490136341</v>
       </c>
       <c r="I62" t="n">
         <v>16.57573316800831</v>
@@ -3667,16 +3667,16 @@
         <v>21.9814878807647</v>
       </c>
       <c r="K62" t="n">
-        <v>16.55808011374301</v>
+        <v>16.5580801137431</v>
       </c>
       <c r="L62" t="n">
-        <v>21.49371033148748</v>
+        <v>21.49371033148767</v>
       </c>
       <c r="M62" t="n">
-        <v>0.01170647048039298</v>
+        <v>0.01170647048039274</v>
       </c>
       <c r="N62" t="n">
-        <v>0.263107680681481</v>
+        <v>0.263107680681519</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0004373000000015281</v>
+        <v>0.0001858999999910793</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0.04314955515597899</v>
       </c>
       <c r="F63" t="n">
-        <v>19.9428198037862</v>
+        <v>19.94281980378658</v>
       </c>
       <c r="G63" t="n">
-        <v>149.4756798825196</v>
+        <v>149.4756798825165</v>
       </c>
       <c r="H63" t="n">
-        <v>5.21418090394765</v>
+        <v>5.214180903947581</v>
       </c>
       <c r="I63" t="n">
         <v>20.09731597443985</v>
@@ -3719,16 +3719,16 @@
         <v>12.87701081010599</v>
       </c>
       <c r="K63" t="n">
-        <v>20.07998530055833</v>
+        <v>20.07998530055842</v>
       </c>
       <c r="L63" t="n">
-        <v>12.70910427253235</v>
+        <v>12.70910427253301</v>
       </c>
       <c r="M63" t="n">
-        <v>0.01055562558891165</v>
+        <v>0.01055562558891072</v>
       </c>
       <c r="N63" t="n">
-        <v>0.07118967479117602</v>
+        <v>0.07118967479095964</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003180999999941037</v>
+        <v>0.0001861000000076274</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0.001232542630374539</v>
       </c>
       <c r="F64" t="n">
-        <v>20.02778353054004</v>
+        <v>20.02778353053991</v>
       </c>
       <c r="G64" t="n">
-        <v>6.088987646379056</v>
+        <v>6.088987646378968</v>
       </c>
       <c r="H64" t="n">
-        <v>8.735792476968379</v>
+        <v>8.735792476969154</v>
       </c>
       <c r="I64" t="n">
         <v>4.695261347669589</v>
@@ -3771,16 +3771,16 @@
         <v>28.06116813307842</v>
       </c>
       <c r="K64" t="n">
-        <v>4.68848895159092</v>
+        <v>4.688488951590958</v>
       </c>
       <c r="L64" t="n">
-        <v>27.92868504662125</v>
+        <v>27.92868504662204</v>
       </c>
       <c r="M64" t="n">
-        <v>0.008984107645546295</v>
+        <v>0.008984107645546045</v>
       </c>
       <c r="N64" t="n">
-        <v>0.0475194739390321</v>
+        <v>0.04751947393875772</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003184999999987781</v>
+        <v>0.0002435000000104992</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0.2138978653518085</v>
       </c>
       <c r="F65" t="n">
-        <v>19.50775384757086</v>
+        <v>19.50775384757117</v>
       </c>
       <c r="G65" t="n">
-        <v>102.7016078161974</v>
+        <v>102.7016078161983</v>
       </c>
       <c r="H65" t="n">
-        <v>7.278278667814063</v>
+        <v>7.278278667814198</v>
       </c>
       <c r="I65" t="n">
         <v>33.18633892201698</v>
@@ -3823,16 +3823,16 @@
         <v>18.89625465573057</v>
       </c>
       <c r="K65" t="n">
-        <v>33.11095279242128</v>
+        <v>33.11095279242139</v>
       </c>
       <c r="L65" t="n">
-        <v>17.87325488987356</v>
+        <v>17.87325488987375</v>
       </c>
       <c r="M65" t="n">
-        <v>0.01373460558517945</v>
+        <v>0.013734605585179</v>
       </c>
       <c r="N65" t="n">
-        <v>0.3375559045589128</v>
+        <v>0.3375559045588473</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.001907599999995568</v>
+        <v>0.000193200000012439</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>359.8899677060768</v>
       </c>
       <c r="F66" t="n">
-        <v>20.02250880363105</v>
+        <v>20.02250880362876</v>
       </c>
       <c r="G66" t="n">
-        <v>67.35689778545787</v>
+        <v>67.35689778545726</v>
       </c>
       <c r="H66" t="n">
-        <v>10.05570923606919</v>
+        <v>10.05570923606764</v>
       </c>
       <c r="I66" t="n">
         <v>29.08874271726011</v>
@@ -3875,16 +3875,16 @@
         <v>24.88481197061157</v>
       </c>
       <c r="K66" t="n">
-        <v>29.08992065562463</v>
+        <v>29.0899206556243</v>
       </c>
       <c r="L66" t="n">
-        <v>25.23491115786253</v>
+        <v>25.23491115785915</v>
       </c>
       <c r="M66" t="n">
-        <v>0.01238355126425443</v>
+        <v>0.01238355126425825</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1096406646326552</v>
+        <v>0.1096406646319618</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.0001852999999982785</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0.08336648231326493</v>
       </c>
       <c r="F67" t="n">
-        <v>20.00553271304296</v>
+        <v>20.00553271304265</v>
       </c>
       <c r="G67" t="n">
-        <v>42.43708144224968</v>
+        <v>42.43708144225105</v>
       </c>
       <c r="H67" t="n">
-        <v>3.012062967675693</v>
+        <v>3.012062967675449</v>
       </c>
       <c r="I67" t="n">
         <v>10.3312492425286</v>
@@ -3927,16 +3927,16 @@
         <v>20.85499145199956</v>
       </c>
       <c r="K67" t="n">
-        <v>10.28235297174119</v>
+        <v>10.28235297174112</v>
       </c>
       <c r="L67" t="n">
-        <v>20.38406675648527</v>
+        <v>20.38406675648467</v>
       </c>
       <c r="M67" t="n">
-        <v>0.010454854064509</v>
+        <v>0.01045485406450941</v>
       </c>
       <c r="N67" t="n">
-        <v>0.3969363422212867</v>
+        <v>0.3969363422215706</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003410999999999831</v>
+        <v>0.0001895000000047276</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>359.8584385635936</v>
       </c>
       <c r="F68" t="n">
-        <v>19.63705038078839</v>
+        <v>19.63705038078782</v>
       </c>
       <c r="G68" t="n">
-        <v>25.47226309545942</v>
+        <v>25.47226309545852</v>
       </c>
       <c r="H68" t="n">
-        <v>5.220322729589207</v>
+        <v>5.220322729589057</v>
       </c>
       <c r="I68" t="n">
         <v>9.544606449506214</v>
@@ -3979,16 +3979,16 @@
         <v>22.58510882584286</v>
       </c>
       <c r="K68" t="n">
-        <v>9.55262390804015</v>
+        <v>9.552623908040035</v>
       </c>
       <c r="L68" t="n">
-        <v>22.9949336831614</v>
+        <v>22.99493368316069</v>
       </c>
       <c r="M68" t="n">
-        <v>0.01161424244698736</v>
+        <v>0.01161424244698813</v>
       </c>
       <c r="N68" t="n">
-        <v>0.4241588664204724</v>
+        <v>0.4241588664203323</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0005232999999975618</v>
+        <v>0.0002039000000024771</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>359.887147784778</v>
       </c>
       <c r="F69" t="n">
-        <v>20.10146447182708</v>
+        <v>20.10146447181958</v>
       </c>
       <c r="G69" t="n">
-        <v>97.69820951323103</v>
+        <v>97.69820951323022</v>
       </c>
       <c r="H69" t="n">
-        <v>13.52000791119525</v>
+        <v>13.52000791118886</v>
       </c>
       <c r="I69" t="n">
         <v>48.35751430066835</v>
@@ -4031,16 +4031,16 @@
         <v>22.71174981430071</v>
       </c>
       <c r="K69" t="n">
-        <v>48.33821297551677</v>
+        <v>48.33821297551585</v>
       </c>
       <c r="L69" t="n">
-        <v>23.03449616981192</v>
+        <v>23.03449616980213</v>
       </c>
       <c r="M69" t="n">
-        <v>0.01134219574957678</v>
+        <v>0.01134219574958667</v>
       </c>
       <c r="N69" t="n">
-        <v>0.0825413579981702</v>
+        <v>0.08254135799649878</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0004671999999956711</v>
+        <v>0.0002416000000096119</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0.0944476364371679</v>
       </c>
       <c r="F70" t="n">
-        <v>19.98734465971344</v>
+        <v>19.98734465971313</v>
       </c>
       <c r="G70" t="n">
-        <v>51.88062985106642</v>
+        <v>51.88062985106833</v>
       </c>
       <c r="H70" t="n">
-        <v>3.05656266242985</v>
+        <v>3.056562662429615</v>
       </c>
       <c r="I70" t="n">
         <v>11.81939003856421</v>
@@ -4083,16 +4083,16 @@
         <v>20.72083320136014</v>
       </c>
       <c r="K70" t="n">
-        <v>11.76370640657002</v>
+        <v>11.76370640656994</v>
       </c>
       <c r="L70" t="n">
-        <v>20.05639110459588</v>
+        <v>20.05639110459528</v>
       </c>
       <c r="M70" t="n">
-        <v>0.01115033271538219</v>
+        <v>0.01115033271538263</v>
       </c>
       <c r="N70" t="n">
-        <v>0.5265599516100754</v>
+        <v>0.5265599516103603</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0006191000000015379</v>
+        <v>0.0001935000000230502</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>359.9084492901451</v>
       </c>
       <c r="F71" t="n">
-        <v>19.7920950165131</v>
+        <v>19.79209501651333</v>
       </c>
       <c r="G71" t="n">
-        <v>52.76005073484438</v>
+        <v>52.76005073484468</v>
       </c>
       <c r="H71" t="n">
-        <v>12.81677650874509</v>
+        <v>12.81677650874519</v>
       </c>
       <c r="I71" t="n">
         <v>26.8338317910883</v>
@@ -4135,16 +4135,16 @@
         <v>29.68943618653344</v>
       </c>
       <c r="K71" t="n">
-        <v>26.80951573715991</v>
+        <v>26.80951573715995</v>
       </c>
       <c r="L71" t="n">
-        <v>29.67253414897577</v>
+        <v>29.67253414897604</v>
       </c>
       <c r="M71" t="n">
-        <v>0.01141370995742631</v>
+        <v>0.01141370995742614</v>
       </c>
       <c r="N71" t="n">
-        <v>0.04238580021558183</v>
+        <v>0.04238580021556453</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003531999999992763</v>
+        <v>0.0001865999999779433</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>359.9149002591698</v>
       </c>
       <c r="F72" t="n">
-        <v>20.40748644833783</v>
+        <v>20.40748644833091</v>
       </c>
       <c r="G72" t="n">
-        <v>166.4273485095825</v>
+        <v>166.4273485095862</v>
       </c>
       <c r="H72" t="n">
-        <v>13.78088217839931</v>
+        <v>13.78088217839382</v>
       </c>
       <c r="I72" t="n">
         <v>71.23042357909056</v>
@@ -4187,16 +4187,16 @@
         <v>5.091810049838018</v>
       </c>
       <c r="K72" t="n">
-        <v>71.13280914496944</v>
+        <v>71.13280914496831</v>
       </c>
       <c r="L72" t="n">
-        <v>5.306124230416255</v>
+        <v>5.306124230413576</v>
       </c>
       <c r="M72" t="n">
-        <v>0.01102251679531259</v>
+        <v>0.01102251679531598</v>
       </c>
       <c r="N72" t="n">
-        <v>0.165399233810895</v>
+        <v>0.165399233809191</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0005476999999984855</v>
+        <v>0.0001838999999961288</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0.04306031497297426</v>
       </c>
       <c r="F73" t="n">
-        <v>19.95284249222751</v>
+        <v>19.95284249222689</v>
       </c>
       <c r="G73" t="n">
-        <v>34.02114466826141</v>
+        <v>34.02114466826147</v>
       </c>
       <c r="H73" t="n">
-        <v>7.324485756227962</v>
+        <v>7.324485756227468</v>
       </c>
       <c r="I73" t="n">
         <v>13.94596386491522</v>
@@ -4239,16 +4239,16 @@
         <v>25.79680087522651</v>
       </c>
       <c r="K73" t="n">
-        <v>13.92175305057083</v>
+        <v>13.92175305057071</v>
       </c>
       <c r="L73" t="n">
-        <v>25.3665251662543</v>
+        <v>25.36652516625314</v>
       </c>
       <c r="M73" t="n">
-        <v>0.009951119116436613</v>
+        <v>0.009951119116437311</v>
       </c>
       <c r="N73" t="n">
-        <v>0.1522821890053943</v>
+        <v>0.1522821890056606</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.000392400000002624</v>
+        <v>0.0001902999999856547</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>359.9681454500934</v>
       </c>
       <c r="F74" t="n">
-        <v>19.84722456364739</v>
+        <v>19.84722456364688</v>
       </c>
       <c r="G74" t="n">
-        <v>19.02468200483548</v>
+        <v>19.02468200483523</v>
       </c>
       <c r="H74" t="n">
-        <v>11.33338721571383</v>
+        <v>11.33338721571338</v>
       </c>
       <c r="I74" t="n">
         <v>10.53944732398951</v>
@@ -4291,16 +4291,16 @@
         <v>30.60511931178456</v>
       </c>
       <c r="K74" t="n">
-        <v>10.52984700506564</v>
+        <v>10.52984700506557</v>
       </c>
       <c r="L74" t="n">
-        <v>30.60343079045574</v>
+        <v>30.60343079045471</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0101999995453536</v>
+        <v>0.0101999995453542</v>
       </c>
       <c r="N74" t="n">
-        <v>0.03423809968324228</v>
+        <v>0.0342380996832253</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003773000000037996</v>
+        <v>0.00025820000001886</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>359.942318694869</v>
       </c>
       <c r="F75" t="n">
-        <v>20.12059840728077</v>
+        <v>20.12059840727627</v>
       </c>
       <c r="G75" t="n">
-        <v>115.1811331080233</v>
+        <v>115.181133108024</v>
       </c>
       <c r="H75" t="n">
-        <v>9.577742836411169</v>
+        <v>9.577742836408266</v>
       </c>
       <c r="I75" t="n">
         <v>42.46365114585801</v>
@@ -4343,16 +4343,16 @@
         <v>16.89259938730791</v>
       </c>
       <c r="K75" t="n">
-        <v>42.48174194129429</v>
+        <v>42.4817419412935</v>
       </c>
       <c r="L75" t="n">
-        <v>17.10396173120552</v>
+        <v>17.10396173120102</v>
       </c>
       <c r="M75" t="n">
-        <v>0.009360415557111503</v>
+        <v>0.009360415557115597</v>
       </c>
       <c r="N75" t="n">
-        <v>0.06814545013134583</v>
+        <v>0.06814545012991857</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0001909000000068772</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>359.9391654506192</v>
       </c>
       <c r="F76" t="n">
-        <v>19.85211153543751</v>
+        <v>19.85211153543803</v>
       </c>
       <c r="G76" t="n">
-        <v>36.15603555830706</v>
+        <v>36.15603555830651</v>
       </c>
       <c r="H76" t="n">
-        <v>12.48127073947094</v>
+        <v>12.48127073947186</v>
       </c>
       <c r="I76" t="n">
         <v>18.81757901229481</v>
@@ -4395,16 +4395,16 @@
         <v>31.03383242832522</v>
       </c>
       <c r="K76" t="n">
-        <v>18.80275860218736</v>
+        <v>18.8027586021874</v>
       </c>
       <c r="L76" t="n">
-        <v>30.98219378970604</v>
+        <v>30.98219378970763</v>
       </c>
       <c r="M76" t="n">
-        <v>0.009402432897247244</v>
+        <v>0.009402432897246137</v>
       </c>
       <c r="N76" t="n">
-        <v>0.02591947252454691</v>
+        <v>0.02591947252464602</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002953999999988355</v>
+        <v>0.000191499999999678</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0.07095021339761047</v>
       </c>
       <c r="F77" t="n">
-        <v>19.96068130227712</v>
+        <v>19.96068130227804</v>
       </c>
       <c r="G77" t="n">
-        <v>106.4393132289565</v>
+        <v>106.4393132289512</v>
       </c>
       <c r="H77" t="n">
-        <v>3.736102132384982</v>
+        <v>3.736102132385294</v>
       </c>
       <c r="I77" t="n">
         <v>18.89077154030081</v>
@@ -4447,16 +4447,16 @@
         <v>17.33986823530514</v>
       </c>
       <c r="K77" t="n">
-        <v>18.87234854006876</v>
+        <v>18.87234854006897</v>
       </c>
       <c r="L77" t="n">
-        <v>16.98881700457595</v>
+        <v>16.98881700457725</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01042572271158463</v>
+        <v>0.01042572271158317</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1756734228143539</v>
+        <v>0.1756734228138417</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002974000000008914</v>
+        <v>0.000206999999988966</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>359.9059698689281</v>
       </c>
       <c r="F78" t="n">
-        <v>19.91257999232335</v>
+        <v>19.91257999232531</v>
       </c>
       <c r="G78" t="n">
-        <v>55.55936873489672</v>
+        <v>55.55936873489772</v>
       </c>
       <c r="H78" t="n">
-        <v>12.97747989477989</v>
+        <v>12.97747989478137</v>
       </c>
       <c r="I78" t="n">
         <v>28.16915530266995</v>
@@ -4499,16 +4499,16 @@
         <v>29.4964254447366</v>
       </c>
       <c r="K78" t="n">
-        <v>28.17343494150134</v>
+        <v>28.17343494150161</v>
       </c>
       <c r="L78" t="n">
-        <v>29.61185851218124</v>
+        <v>29.61185851218441</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01020813741561655</v>
+        <v>0.01020813741561402</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04650402412377395</v>
+        <v>0.04650402412428171</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003099000000048591</v>
+        <v>0.000185000000016089</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>359.9775555147925</v>
       </c>
       <c r="F79" t="n">
-        <v>20.01365184698249</v>
+        <v>20.01365184698263</v>
       </c>
       <c r="G79" t="n">
-        <v>165.2697350357479</v>
+        <v>165.2697350357481</v>
       </c>
       <c r="H79" t="n">
-        <v>10.69730262557722</v>
+        <v>10.69730262557734</v>
       </c>
       <c r="I79" t="n">
         <v>41.64356557784242</v>
@@ -4551,16 +4551,16 @@
         <v>6.622093328573639</v>
       </c>
       <c r="K79" t="n">
-        <v>41.61929130284872</v>
+        <v>41.6192913028489</v>
       </c>
       <c r="L79" t="n">
-        <v>6.664784753070575</v>
+        <v>6.664784753070564</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0100869449384848</v>
+        <v>0.01008694493848449</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0231724964146652</v>
+        <v>0.02317249641458019</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003032000000047219</v>
+        <v>0.0002379000000019005</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>359.9877953862775</v>
       </c>
       <c r="F80" t="n">
-        <v>19.99238617322131</v>
+        <v>19.99238617322138</v>
       </c>
       <c r="G80" t="n">
-        <v>8.745215233543819</v>
+        <v>8.745215233543831</v>
       </c>
       <c r="H80" t="n">
-        <v>10.96812240753456</v>
+        <v>10.96812240753476</v>
       </c>
       <c r="I80" t="n">
         <v>5.948030209996284</v>
@@ -4603,16 +4603,16 @@
         <v>30.80205203138767</v>
       </c>
       <c r="K80" t="n">
-        <v>5.95104184341615</v>
+        <v>5.951041843416163</v>
       </c>
       <c r="L80" t="n">
-        <v>30.54938968441799</v>
+        <v>30.54938968441828</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01013310712563977</v>
+        <v>0.01013310712563963</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06176399710766334</v>
+        <v>0.06176399710760266</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002952999999976669</v>
+        <v>0.0001995000000079017</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0.3316358820770021</v>
       </c>
       <c r="F81" t="n">
-        <v>19.22928546585218</v>
+        <v>19.22928546585302</v>
       </c>
       <c r="G81" t="n">
-        <v>93.59132408088168</v>
+        <v>93.59132408088438</v>
       </c>
       <c r="H81" t="n">
-        <v>7.764567126900151</v>
+        <v>7.764567126900471</v>
       </c>
       <c r="I81" t="n">
         <v>33.54355347503301</v>
@@ -4655,16 +4655,16 @@
         <v>20.83100353070742</v>
       </c>
       <c r="K81" t="n">
-        <v>33.42935532779254</v>
+        <v>33.42935532779281</v>
       </c>
       <c r="L81" t="n">
-        <v>19.20634794891742</v>
+        <v>19.20634794891793</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02019445636796985</v>
+        <v>0.02019445636796868</v>
       </c>
       <c r="N81" t="n">
-        <v>0.4925745318983077</v>
+        <v>0.4925745318981707</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003069999999993911</v>
+        <v>0.0001867000000004282</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>359.8100147063852</v>
       </c>
       <c r="F82" t="n">
-        <v>20.25961949059864</v>
+        <v>20.25961949059895</v>
       </c>
       <c r="G82" t="n">
-        <v>93.03363517484813</v>
+        <v>93.03363517484736</v>
       </c>
       <c r="H82" t="n">
-        <v>11.78919335672003</v>
+        <v>11.78919335672036</v>
       </c>
       <c r="I82" t="n">
         <v>42.00785586126269</v>
@@ -4707,16 +4707,16 @@
         <v>22.12910312982312</v>
       </c>
       <c r="K82" t="n">
-        <v>42.03490844233256</v>
+        <v>42.03490844233252</v>
       </c>
       <c r="L82" t="n">
-        <v>22.74621241757887</v>
+        <v>22.7462124175795</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01236682212541546</v>
+        <v>0.01236682212541477</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1629869014675439</v>
+        <v>0.1629869014676691</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003108000000011657</v>
+        <v>0.0001846000000114145</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0.1359900342218655</v>
       </c>
       <c r="F83" t="n">
-        <v>19.89071000999644</v>
+        <v>19.8907100099977</v>
       </c>
       <c r="G83" t="n">
-        <v>66.1819241246088</v>
+        <v>66.18192412460648</v>
       </c>
       <c r="H83" t="n">
-        <v>6.685948629479352</v>
+        <v>6.6859486294803</v>
       </c>
       <c r="I83" t="n">
         <v>22.66003708688305</v>
@@ -4759,16 +4759,16 @@
         <v>22.88308841551866</v>
       </c>
       <c r="K83" t="n">
-        <v>22.6433317150531</v>
+        <v>22.64333171505328</v>
       </c>
       <c r="L83" t="n">
-        <v>22.22762771512206</v>
+        <v>22.22762771512427</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01119682661965941</v>
+        <v>0.01119682661965796</v>
       </c>
       <c r="N83" t="n">
-        <v>0.2496125285914033</v>
+        <v>0.249612528590808</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0002820999999997298</v>
+        <v>0.0001943999999980406</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>359.9159349597244</v>
       </c>
       <c r="F84" t="n">
-        <v>19.89330197976929</v>
+        <v>19.89330197977186</v>
       </c>
       <c r="G84" t="n">
-        <v>48.92030859793653</v>
+        <v>48.92030859793717</v>
       </c>
       <c r="H84" t="n">
-        <v>10.86728136878615</v>
+        <v>10.86728136878814</v>
       </c>
       <c r="I84" t="n">
         <v>23.0138177326087</v>
@@ -4811,16 +4811,16 @@
         <v>27.91456839119444</v>
       </c>
       <c r="K84" t="n">
-        <v>23.00058531644951</v>
+        <v>23.00058531644985</v>
       </c>
       <c r="L84" t="n">
-        <v>28.07829251501723</v>
+        <v>28.07829251502168</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01123196543550395</v>
+        <v>0.01123196543550025</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07463106098989997</v>
+        <v>0.07463106099053088</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003175000000013029</v>
+        <v>0.0002357999999844651</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>359.9150687113963</v>
       </c>
       <c r="F85" t="n">
-        <v>19.82966113024528</v>
+        <v>19.82966113024457</v>
       </c>
       <c r="G85" t="n">
-        <v>45.74627369058317</v>
+        <v>45.74627369058328</v>
       </c>
       <c r="H85" t="n">
-        <v>11.34228133296882</v>
+        <v>11.34228133296813</v>
       </c>
       <c r="I85" t="n">
         <v>22.19829023105142</v>
@@ -4863,16 +4863,16 @@
         <v>28.81480572929693</v>
       </c>
       <c r="K85" t="n">
-        <v>22.18002554160386</v>
+        <v>22.18002554160379</v>
       </c>
       <c r="L85" t="n">
-        <v>28.84588425128733</v>
+        <v>28.8458842512859</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01055829144377498</v>
+        <v>0.01055829144377624</v>
       </c>
       <c r="N85" t="n">
-        <v>0.04992548158476687</v>
+        <v>0.04992548158454117</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0003184999999987781</v>
+        <v>0.0002420999999799278</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0.01316122019755319</v>
       </c>
       <c r="F86" t="n">
-        <v>19.91985485876516</v>
+        <v>19.91985485876503</v>
       </c>
       <c r="G86" t="n">
-        <v>8.120619508716231</v>
+        <v>8.120619508716015</v>
       </c>
       <c r="H86" t="n">
-        <v>7.468817081333221</v>
+        <v>7.468817081333665</v>
       </c>
       <c r="I86" t="n">
         <v>5.354793513653481</v>
@@ -4918,13 +4918,13 @@
         <v>5.327709075671375</v>
       </c>
       <c r="L86" t="n">
-        <v>26.28977774662294</v>
+        <v>26.28977774662334</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01126089970425786</v>
+        <v>0.01126089970425769</v>
       </c>
       <c r="N86" t="n">
-        <v>0.02261825617929386</v>
+        <v>0.02261825617942259</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000327900000002046</v>
+        <v>0.000187999999980093</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>359.9823149278921</v>
       </c>
       <c r="F87" t="n">
-        <v>19.95362578421817</v>
+        <v>19.95362578421825</v>
       </c>
       <c r="G87" t="n">
-        <v>111.4267484762597</v>
+        <v>111.4267484762595</v>
       </c>
       <c r="H87" t="n">
-        <v>9.093120395078383</v>
+        <v>9.093120395078442</v>
       </c>
       <c r="I87" t="n">
         <v>40.31703926566036</v>
@@ -4967,16 +4967,16 @@
         <v>17.50678391245108</v>
       </c>
       <c r="K87" t="n">
-        <v>40.29835572888447</v>
+        <v>40.29835572888448</v>
       </c>
       <c r="L87" t="n">
-        <v>17.50531940268039</v>
+        <v>17.50531940268051</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01031569224064469</v>
+        <v>0.01031569224064459</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01475363402545345</v>
+        <v>0.01475363402543083</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002963999999963107</v>
+        <v>0.000187299999993229</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0.05962857189673432</v>
       </c>
       <c r="F88" t="n">
-        <v>19.96157813377561</v>
+        <v>19.96157813377551</v>
       </c>
       <c r="G88" t="n">
-        <v>37.98067704462848</v>
+        <v>37.98067704462935</v>
       </c>
       <c r="H88" t="n">
-        <v>5.103312381196257</v>
+        <v>5.103312381196031</v>
       </c>
       <c r="I88" t="n">
         <v>12.63355933516389</v>
@@ -5019,16 +5019,16 @@
         <v>23.239492303837</v>
       </c>
       <c r="K88" t="n">
-        <v>12.60938809418824</v>
+        <v>12.60938809418821</v>
       </c>
       <c r="L88" t="n">
-        <v>22.72022308201108</v>
+        <v>22.7202230820107</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01052994398684351</v>
+        <v>0.0105299439868437</v>
       </c>
       <c r="N88" t="n">
-        <v>0.2550874291440282</v>
+        <v>0.2550874291441866</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0003083000000003722</v>
+        <v>0.0001881000000025779</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>359.9627624479147</v>
       </c>
       <c r="F89" t="n">
-        <v>19.98423843507681</v>
+        <v>19.9842384350689</v>
       </c>
       <c r="G89" t="n">
-        <v>118.014960963281</v>
+        <v>118.0149609632807</v>
       </c>
       <c r="H89" t="n">
-        <v>14.46636399570907</v>
+        <v>14.46636399570195</v>
       </c>
       <c r="I89" t="n">
         <v>60.8050478197775</v>
@@ -5071,16 +5071,16 @@
         <v>18.86895112245551</v>
       </c>
       <c r="K89" t="n">
-        <v>60.79474564892579</v>
+        <v>60.79474564892477</v>
       </c>
       <c r="L89" t="n">
-        <v>18.88350897224156</v>
+        <v>18.88350897223317</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01031354962601426</v>
+        <v>0.01031354962602256</v>
       </c>
       <c r="N89" t="n">
-        <v>0.007981220516945312</v>
+        <v>0.007981220515237501</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002785000000002924</v>
+        <v>0.0002395000000205982</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>359.9893115695848</v>
       </c>
       <c r="F90" t="n">
-        <v>20.01805304160775</v>
+        <v>20.01805304161473</v>
       </c>
       <c r="G90" t="n">
-        <v>116.449707862233</v>
+        <v>116.4497078622309</v>
       </c>
       <c r="H90" t="n">
-        <v>9.100760812777144</v>
+        <v>9.100760812781504</v>
       </c>
       <c r="I90" t="n">
         <v>41.12816029319166</v>
@@ -5123,16 +5123,16 @@
         <v>16.60650249154164</v>
       </c>
       <c r="K90" t="n">
-        <v>41.11929396806148</v>
+        <v>41.11929396806276</v>
       </c>
       <c r="L90" t="n">
-        <v>16.64235328848122</v>
+        <v>16.64235328848818</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0100269864919135</v>
+        <v>0.01002698649190597</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0126692431760269</v>
+        <v>0.01266924317765591</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002892999999986046</v>
+        <v>0.0001862999999957538</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0.169373002654711</v>
       </c>
       <c r="F91" t="n">
-        <v>19.71457906286074</v>
+        <v>19.71457906286258</v>
       </c>
       <c r="G91" t="n">
-        <v>93.52917683458949</v>
+        <v>93.52917683458746</v>
       </c>
       <c r="H91" t="n">
-        <v>5.724944054441459</v>
+        <v>5.724944054442362</v>
       </c>
       <c r="I91" t="n">
         <v>25.93067114680046</v>
@@ -5175,16 +5175,16 @@
         <v>19.33745493689766</v>
       </c>
       <c r="K91" t="n">
-        <v>25.86822840212133</v>
+        <v>25.86822840212167</v>
       </c>
       <c r="L91" t="n">
-        <v>18.53216486687638</v>
+        <v>18.53216486687868</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01232534542327487</v>
+        <v>0.01232534542327197</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3172214821524459</v>
+        <v>0.3172214821517395</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003318999999990524</v>
+        <v>0.0001920999999924788</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0.0224486668199389</v>
       </c>
       <c r="F92" t="n">
-        <v>19.87198913340947</v>
+        <v>19.87198913340975</v>
       </c>
       <c r="G92" t="n">
-        <v>27.65282134067582</v>
+        <v>27.6528213406786</v>
       </c>
       <c r="H92" t="n">
-        <v>4.740275786669481</v>
+        <v>4.740275786668935</v>
       </c>
       <c r="I92" t="n">
         <v>9.760627286571122</v>
@@ -5227,16 +5227,16 @@
         <v>22.92041397631485</v>
       </c>
       <c r="K92" t="n">
-        <v>9.718596588214417</v>
+        <v>9.718596588214456</v>
       </c>
       <c r="L92" t="n">
-        <v>22.61882146454426</v>
+        <v>22.61882146454382</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01086882024993431</v>
+        <v>0.01086882024993448</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1126644964096329</v>
+        <v>0.1126644964099982</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002955999999940673</v>
+        <v>0.0001870999999766809</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0.06061210177347404</v>
       </c>
       <c r="F93" t="n">
-        <v>19.87947740190024</v>
+        <v>19.87947740189929</v>
       </c>
       <c r="G93" t="n">
-        <v>37.04394151051433</v>
+        <v>37.04394151051303</v>
       </c>
       <c r="H93" t="n">
-        <v>6.563543633990963</v>
+        <v>6.56354363399066</v>
       </c>
       <c r="I93" t="n">
         <v>14.17967145141647</v>
@@ -5279,16 +5279,16 @@
         <v>24.87142509426831</v>
       </c>
       <c r="K93" t="n">
-        <v>14.14821662118045</v>
+        <v>14.14821662118027</v>
       </c>
       <c r="L93" t="n">
-        <v>24.28640942172466</v>
+        <v>24.28640942172348</v>
       </c>
       <c r="M93" t="n">
-        <v>0.009937370722441394</v>
+        <v>0.009937370722442185</v>
       </c>
       <c r="N93" t="n">
-        <v>0.2070656690481224</v>
+        <v>0.2070656690483284</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0002795999999989363</v>
+        <v>0.0002484999999978754</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>359.9769700758218</v>
       </c>
       <c r="F94" t="n">
-        <v>20.00599733797413</v>
+        <v>20.00599733798152</v>
       </c>
       <c r="G94" t="n">
-        <v>159.3869775036352</v>
+        <v>159.3869775036311</v>
       </c>
       <c r="H94" t="n">
-        <v>12.46867796345792</v>
+        <v>12.46867796346348</v>
       </c>
       <c r="I94" t="n">
         <v>62.23454606395273</v>
@@ -5331,16 +5331,16 @@
         <v>7.253282679324334</v>
       </c>
       <c r="K94" t="n">
-        <v>62.23509799757344</v>
+        <v>62.23509799757506</v>
       </c>
       <c r="L94" t="n">
-        <v>7.266628525656312</v>
+        <v>7.266628525659987</v>
       </c>
       <c r="M94" t="n">
-        <v>0.009113470777165008</v>
+        <v>0.009113470777162404</v>
       </c>
       <c r="N94" t="n">
-        <v>0.006135633646526055</v>
+        <v>0.006135633648993701</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0004364000000052215</v>
+        <v>0.0001951000000133263</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>359.8369801919656</v>
       </c>
       <c r="F95" t="n">
-        <v>20.23518899214379</v>
+        <v>20.23518899214157</v>
       </c>
       <c r="G95" t="n">
-        <v>108.1032470166525</v>
+        <v>108.1032470166528</v>
       </c>
       <c r="H95" t="n">
-        <v>11.19178261248576</v>
+        <v>11.19178261248413</v>
       </c>
       <c r="I95" t="n">
         <v>45.89953068680607</v>
@@ -5383,16 +5383,16 @@
         <v>18.82125777249706</v>
       </c>
       <c r="K95" t="n">
-        <v>45.90707006072961</v>
+        <v>45.90707006072932</v>
       </c>
       <c r="L95" t="n">
-        <v>19.32326288256753</v>
+        <v>19.32326288256502</v>
       </c>
       <c r="M95" t="n">
-        <v>0.01112184721879401</v>
+        <v>0.01112184721879664</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1415989246090539</v>
+        <v>0.141598924608381</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003217000000006465</v>
+        <v>0.0001856999999745312</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>359.9256546784487</v>
       </c>
       <c r="F96" t="n">
-        <v>20.09339621829501</v>
+        <v>20.09339621829682</v>
       </c>
       <c r="G96" t="n">
-        <v>128.8826968416289</v>
+        <v>128.8826968416275</v>
       </c>
       <c r="H96" t="n">
-        <v>10.37370970863062</v>
+        <v>10.37370970863186</v>
       </c>
       <c r="I96" t="n">
         <v>48.29065171913467</v>
@@ -5435,16 +5435,16 @@
         <v>14.32873211053184</v>
       </c>
       <c r="K96" t="n">
-        <v>48.27217830159702</v>
+        <v>48.27217830159723</v>
       </c>
       <c r="L96" t="n">
-        <v>14.51754695150741</v>
+        <v>14.51754695150916</v>
       </c>
       <c r="M96" t="n">
-        <v>0.01052645586775944</v>
+        <v>0.01052645586775795</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06290665005653236</v>
+        <v>0.06290665005702255</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.000286799999997811</v>
+        <v>0.0001848999999936041</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0.06642888995524825</v>
       </c>
       <c r="F97" t="n">
-        <v>19.96095233478534</v>
+        <v>19.96095233478497</v>
       </c>
       <c r="G97" t="n">
-        <v>42.59504865478903</v>
+        <v>42.59504865478912</v>
       </c>
       <c r="H97" t="n">
-        <v>4.975390666895472</v>
+        <v>4.97539066689526</v>
       </c>
       <c r="I97" t="n">
         <v>13.57118462144919</v>
@@ -5487,16 +5487,16 @@
         <v>22.79599817688023</v>
       </c>
       <c r="K97" t="n">
-        <v>13.53793789056075</v>
+        <v>13.53793789056069</v>
       </c>
       <c r="L97" t="n">
-        <v>22.36106968987087</v>
+        <v>22.36106968987028</v>
       </c>
       <c r="M97" t="n">
-        <v>0.00993330591997268</v>
+        <v>0.009933305919973037</v>
       </c>
       <c r="N97" t="n">
-        <v>0.2232766278621994</v>
+        <v>0.2232766278623599</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.0001871999999991658</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>359.9930152225234</v>
       </c>
       <c r="F98" t="n">
-        <v>19.82863946604152</v>
+        <v>19.82863946604041</v>
       </c>
       <c r="G98" t="n">
-        <v>38.59483448692377</v>
+        <v>38.59483448692379</v>
       </c>
       <c r="H98" t="n">
-        <v>13.76194172333675</v>
+        <v>13.76194172333546</v>
       </c>
       <c r="I98" t="n">
         <v>20.86576132904595</v>
@@ -5539,16 +5539,16 @@
         <v>32.55998288646593</v>
       </c>
       <c r="K98" t="n">
-        <v>20.84737172013872</v>
+        <v>20.8473717201386</v>
       </c>
       <c r="L98" t="n">
-        <v>32.2295015234374</v>
+        <v>32.22950152343488</v>
       </c>
       <c r="M98" t="n">
-        <v>0.009838014030659767</v>
+        <v>0.009838014030661374</v>
       </c>
       <c r="N98" t="n">
-        <v>0.05006023143819364</v>
+        <v>0.05006023143858214</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003080000000039718</v>
+        <v>0.0002378000000078373</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0.1751187751292006</v>
       </c>
       <c r="F99" t="n">
-        <v>18.7614072528223</v>
+        <v>18.76140725284208</v>
       </c>
       <c r="G99" t="n">
-        <v>151.6153677764175</v>
+        <v>151.6153677764107</v>
       </c>
       <c r="H99" t="n">
-        <v>13.49817900261279</v>
+        <v>13.49817900263047</v>
       </c>
       <c r="I99" t="n">
         <v>78.06587627245798</v>
@@ -5591,16 +5591,16 @@
         <v>9.999091878929827</v>
       </c>
       <c r="K99" t="n">
-        <v>78.01970150551384</v>
+        <v>78.01970150551681</v>
       </c>
       <c r="L99" t="n">
-        <v>9.126838677157906</v>
+        <v>9.126838677169916</v>
       </c>
       <c r="M99" t="n">
-        <v>0.01203224244900703</v>
+        <v>0.01203224244895436</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3764966801079455</v>
+        <v>0.3764966801020157</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002964999999974793</v>
+        <v>0.0001871999999991658</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>359.9526282918734</v>
       </c>
       <c r="F100" t="n">
-        <v>19.98461975733105</v>
+        <v>19.98461975732909</v>
       </c>
       <c r="G100" t="n">
-        <v>131.4505686448117</v>
+        <v>131.450568644812</v>
       </c>
       <c r="H100" t="n">
-        <v>9.807641375550771</v>
+        <v>9.80764137554949</v>
       </c>
       <c r="I100" t="n">
         <v>46.1844939913889</v>
@@ -5643,16 +5643,16 @@
         <v>13.77788699865662</v>
       </c>
       <c r="K100" t="n">
-        <v>46.16574023077292</v>
+        <v>46.16574023077246</v>
       </c>
       <c r="L100" t="n">
-        <v>13.82864742555325</v>
+        <v>13.82864742555171</v>
       </c>
       <c r="M100" t="n">
-        <v>0.01144942511832492</v>
+        <v>0.0114494251183266</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02011724558101468</v>
+        <v>0.02011724558060774</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.000293400000003885</v>
+        <v>0.0001864999999838801</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0.0142358842701934</v>
       </c>
       <c r="F101" t="n">
-        <v>19.88321431673651</v>
+        <v>19.88321431673437</v>
       </c>
       <c r="G101" t="n">
-        <v>121.2540538698137</v>
+        <v>121.2540538698133</v>
       </c>
       <c r="H101" t="n">
-        <v>8.778998346967834</v>
+        <v>8.778998346966544</v>
       </c>
       <c r="I101" t="n">
         <v>40.8027694413413</v>
@@ -5695,16 +5695,16 @@
         <v>15.73131543785253</v>
       </c>
       <c r="K101" t="n">
-        <v>40.7859327958933</v>
+        <v>40.78593279589277</v>
       </c>
       <c r="L101" t="n">
-        <v>15.58602314031492</v>
+        <v>15.58602314031311</v>
       </c>
       <c r="M101" t="n">
-        <v>0.009842496585973777</v>
+        <v>0.009842496585976256</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04770048702153611</v>
+        <v>0.04770048702221624</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0006844999999984225</v>
+        <v>0.0001851000000101521</v>
       </c>
     </row>
   </sheetData>
